--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
   <si>
     <t>id</t>
   </si>
@@ -713,9 +713,6 @@
   </si>
   <si>
     <t>Source: Ugandan Ministry</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -1100,32 +1097,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
@@ -1141,11 +1138,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>240</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -721,7 +721,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -706,13 +706,16 @@
     <t>Name: uganda-deprivation-living</t>
   </si>
   <si>
-    <t>Description: Ugandan deprivation of a decent standard of living </t>
+    <t>Description: Deprivation Of A Decent Standard Of Living</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Ugandan Ministry</t>
+    <t>Source: Profiles of higher local governments 2014 - Uganda Bureau of Statistics</t>
+  </si>
+  <si>
+    <t>Source-link: http://www.ubos.org/onlinefiles/uploads/ubos/2009_HLG_%20Abstract_printed/CIS+UPLOADS/Profiles%20of%20Higher%20Local%20Governments_June_2014.pdf</t>
   </si>
   <si>
     <t/>
@@ -727,7 +730,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -1097,32 +1103,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="13">
@@ -1138,6 +1144,16 @@
     <row r="15">
       <c r="A15" t="s">
         <v>239</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -706,13 +706,13 @@
     <t>Name: uganda-deprivation-living</t>
   </si>
   <si>
-    <t>Description: Deprivation Of A Decent Standard Of Living</t>
+    <t>Description: Deprivation of a decent standard of living</t>
   </si>
   <si>
     <t>Units of measure: unit</t>
   </si>
   <si>
-    <t>Source: Profiles of higher local governments 2014 - Uganda Bureau of Statistics</t>
+    <t>Source: Profiles of higher (district and municipal) local governments 2014 â€“ Uganda Bureau of Statistics</t>
   </si>
   <si>
     <t>Source-link: http://www.ubos.org/onlinefiles/uploads/ubos/2009_HLG_%20Abstract_printed/CIS+UPLOADS/Profiles%20of%20Higher%20Local%20Governments_June_2014.pdf</t>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -706,7 +706,7 @@
     <t>Name: uganda-deprivation-living</t>
   </si>
   <si>
-    <t>Description: Deprivation of a decent standard of living</t>
+    <t>Description: Decent standard of living score (higher is better)</t>
   </si>
   <si>
     <t>Units of measure: unit</t>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -739,7 +739,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -31,337 +31,673 @@
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d112</t>
   </si>
   <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
+    <t xml:space="preserve">Wakiso</t>
+  </si>
+  <si>
     <t xml:space="preserve">d114</t>
   </si>
   <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
     <t xml:space="preserve">d115</t>
   </si>
   <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
     <t xml:space="preserve">d116</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d117</t>
   </si>
   <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d118</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d119</t>
   </si>
   <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
     <t xml:space="preserve">d120</t>
   </si>
   <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d121</t>
   </si>
   <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d122</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d123</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d124</t>
   </si>
   <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d201</t>
   </si>
   <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d202</t>
   </si>
   <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
     <t xml:space="preserve">d203</t>
   </si>
   <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
     <t xml:space="preserve">d204</t>
   </si>
   <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d205</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d206</t>
   </si>
   <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d207</t>
   </si>
   <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d208</t>
   </si>
   <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d209</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d210</t>
   </si>
   <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d211</t>
   </si>
   <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
+    <t xml:space="preserve">Tororo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d213</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d214</t>
   </si>
   <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d215</t>
   </si>
   <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d216</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
     <t xml:space="preserve">d217</t>
   </si>
   <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d218</t>
   </si>
   <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d219</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
     <t xml:space="preserve">d220</t>
   </si>
   <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d221</t>
   </si>
   <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
     <t xml:space="preserve">d222</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d223</t>
   </si>
   <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d224</t>
   </si>
   <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
     <t xml:space="preserve">d225</t>
   </si>
   <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
     <t xml:space="preserve">d226</t>
   </si>
   <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d227</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
     <t xml:space="preserve">d228</t>
   </si>
   <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
     <t xml:space="preserve">d229</t>
   </si>
   <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d230</t>
   </si>
   <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d231</t>
   </si>
   <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
     <t xml:space="preserve">d301</t>
   </si>
   <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
     <t xml:space="preserve">d302</t>
   </si>
   <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
     <t xml:space="preserve">d303</t>
   </si>
   <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
     <t xml:space="preserve">d304</t>
   </si>
   <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d305</t>
   </si>
   <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
     <t xml:space="preserve">d306</t>
   </si>
   <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d307</t>
   </si>
   <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
     <t xml:space="preserve">d308</t>
   </si>
   <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
     <t xml:space="preserve">d309</t>
   </si>
   <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d310</t>
   </si>
   <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d311</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
     <t xml:space="preserve">d312</t>
   </si>
   <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
+    <t xml:space="preserve">Yumbe</t>
+  </si>
+  <si>
     <t xml:space="preserve">d314</t>
   </si>
   <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
     <t xml:space="preserve">d315</t>
   </si>
   <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
     <t xml:space="preserve">d316</t>
   </si>
   <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
     <t xml:space="preserve">d317</t>
   </si>
   <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d318</t>
   </si>
   <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d319</t>
   </si>
   <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d320</t>
   </si>
   <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d321</t>
   </si>
   <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
     <t xml:space="preserve">d322</t>
   </si>
   <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
     <t xml:space="preserve">d323</t>
   </si>
   <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
     <t xml:space="preserve">d324</t>
   </si>
   <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
     <t xml:space="preserve">d325</t>
   </si>
   <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d326</t>
   </si>
   <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d327</t>
   </si>
   <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
     <t xml:space="preserve">d328</t>
   </si>
   <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
     <t xml:space="preserve">d329</t>
   </si>
   <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
+    <t xml:space="preserve">Zombo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d401</t>
   </si>
   <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d402</t>
   </si>
   <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d403</t>
   </si>
   <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
     <t xml:space="preserve">d404</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d405</t>
   </si>
   <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
     <t xml:space="preserve">d406</t>
   </si>
   <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
     <t xml:space="preserve">d407</t>
   </si>
   <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d408</t>
   </si>
   <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d409</t>
   </si>
   <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d410</t>
   </si>
   <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
     <t xml:space="preserve">d411</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d412</t>
   </si>
   <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
     <t xml:space="preserve">d413</t>
   </si>
   <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
     <t xml:space="preserve">d414</t>
   </si>
   <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d415</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d416</t>
   </si>
   <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d417</t>
   </si>
   <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
     <t xml:space="preserve">d418</t>
   </si>
   <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
     <t xml:space="preserve">d419</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
     <t xml:space="preserve">d420</t>
   </si>
   <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
     <t xml:space="preserve">d421</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d422</t>
   </si>
   <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d423</t>
   </si>
   <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
     <t xml:space="preserve">d424</t>
   </si>
   <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
     <t xml:space="preserve">d425</t>
   </si>
   <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -737,22 +1073,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -768,52 +1104,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -848,7 +1184,9 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
@@ -858,9 +1196,11 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
@@ -870,9 +1210,11 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
@@ -882,9 +1224,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
@@ -894,9 +1238,11 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
@@ -906,9 +1252,11 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
@@ -918,9 +1266,11 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
@@ -930,9 +1280,11 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
@@ -942,9 +1294,11 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
@@ -954,9 +1308,11 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
@@ -966,9 +1322,11 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
@@ -978,9 +1336,11 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
@@ -990,9 +1350,11 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14"/>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
@@ -1002,9 +1364,11 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
@@ -1014,9 +1378,11 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16"/>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
@@ -1026,9 +1392,11 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
@@ -1036,9 +1404,11 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
@@ -1048,9 +1418,11 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
@@ -1060,9 +1432,11 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20"/>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
@@ -1072,9 +1446,11 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
@@ -1082,9 +1458,11 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
@@ -1092,9 +1470,11 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23"/>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
@@ -1104,9 +1484,11 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
@@ -1116,9 +1498,11 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25"/>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
@@ -1128,9 +1512,11 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26"/>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
@@ -1140,9 +1526,11 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27"/>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
@@ -1152,9 +1540,11 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28"/>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
@@ -1164,9 +1554,11 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
@@ -1176,9 +1568,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
@@ -1188,9 +1582,11 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31"/>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
@@ -1200,9 +1596,11 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32"/>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
@@ -1212,9 +1610,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33"/>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
@@ -1224,9 +1624,11 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34"/>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
@@ -1236,9 +1638,11 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
@@ -1246,9 +1650,11 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36"/>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
@@ -1258,9 +1664,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37"/>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
@@ -1270,9 +1678,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38"/>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
@@ -1282,9 +1692,11 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
@@ -1294,9 +1706,11 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40"/>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
@@ -1306,9 +1720,11 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41"/>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
@@ -1318,9 +1734,11 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42"/>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
@@ -1330,9 +1748,11 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43"/>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
@@ -1342,9 +1762,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44"/>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
@@ -1354,9 +1776,11 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45"/>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
@@ -1366,9 +1790,11 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
@@ -1378,9 +1804,11 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47"/>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
@@ -1390,9 +1818,11 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48"/>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
@@ -1402,9 +1832,11 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49"/>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
@@ -1414,9 +1846,11 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50"/>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
@@ -1426,9 +1860,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51"/>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
@@ -1438,9 +1874,11 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
@@ -1448,9 +1886,11 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53"/>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
@@ -1460,9 +1900,11 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54"/>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
@@ -1472,9 +1914,11 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55"/>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
@@ -1484,9 +1928,11 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56"/>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
@@ -1496,9 +1942,11 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57"/>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
@@ -1508,9 +1956,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58"/>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
@@ -1520,9 +1970,11 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59"/>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
@@ -1532,9 +1984,11 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60"/>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
@@ -1544,9 +1998,11 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
@@ -1556,9 +2012,11 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62"/>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
@@ -1568,9 +2026,11 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63"/>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
@@ -1580,9 +2040,11 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64"/>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
@@ -1592,9 +2054,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65"/>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
@@ -1604,9 +2068,11 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66"/>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
@@ -1616,9 +2082,11 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67"/>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
@@ -1628,9 +2096,11 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68"/>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
@@ -1640,9 +2110,11 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69"/>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
@@ -1652,9 +2124,11 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70"/>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
@@ -1664,9 +2138,11 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
@@ -1674,9 +2150,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72"/>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
@@ -1686,9 +2164,11 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73"/>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
@@ -1698,9 +2178,11 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74"/>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
@@ -1710,9 +2192,11 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
@@ -1720,9 +2204,11 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76"/>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
@@ -1732,9 +2218,11 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77"/>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
@@ -1744,9 +2232,11 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78"/>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
@@ -1756,9 +2246,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79"/>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
@@ -1768,9 +2260,11 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80"/>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
@@ -1780,9 +2274,11 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81"/>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
@@ -1792,9 +2288,11 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82"/>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
@@ -1804,9 +2302,11 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83"/>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
@@ -1816,9 +2316,11 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84"/>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
@@ -1828,9 +2330,11 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85"/>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
@@ -1840,9 +2344,11 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86"/>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
@@ -1852,9 +2358,11 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87"/>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
@@ -1864,9 +2372,11 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88"/>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
@@ -1876,9 +2386,11 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89"/>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
@@ -1888,9 +2400,11 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90"/>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
@@ -1900,9 +2414,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91"/>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
@@ -1912,9 +2428,11 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92"/>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
@@ -1924,9 +2442,11 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
@@ -1936,9 +2456,11 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94"/>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
@@ -1948,9 +2470,11 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95"/>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
@@ -1960,9 +2484,11 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96"/>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
@@ -1972,9 +2498,11 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97"/>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
@@ -1984,9 +2512,11 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
@@ -1994,9 +2524,11 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99"/>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
@@ -2006,9 +2538,11 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100"/>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
@@ -2018,9 +2552,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101"/>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
@@ -2030,9 +2566,11 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102"/>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
@@ -2042,9 +2580,11 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
@@ -2052,9 +2592,11 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104"/>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
@@ -2064,9 +2606,11 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105"/>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
@@ -2076,9 +2620,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106"/>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
@@ -2088,9 +2634,11 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107"/>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
@@ -2100,9 +2648,11 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108"/>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
@@ -2112,9 +2662,11 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109"/>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
@@ -2124,9 +2676,11 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110"/>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
@@ -2136,9 +2690,11 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111"/>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
@@ -2148,9 +2704,11 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112"/>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
@@ -2160,9 +2718,11 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113"/>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
@@ -2189,7 +2749,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>228</v>
       </c>
     </row>
     <row r="2">
@@ -2202,7 +2762,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>9.9</v>
@@ -2210,7 +2770,7 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
         <v>34.7</v>
@@ -2218,7 +2778,7 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
         <v>22.1</v>
@@ -2226,7 +2786,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6" t="n">
         <v>36.1</v>
@@ -2234,7 +2794,7 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>21.1</v>
@@ -2242,7 +2802,7 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B8" t="n">
         <v>35.5</v>
@@ -2250,7 +2810,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>22.1</v>
@@ -2258,7 +2818,7 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B10" t="n">
         <v>52.6</v>
@@ -2266,7 +2826,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B11" t="n">
         <v>54.3</v>
@@ -2274,7 +2834,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B12" t="n">
         <v>47.1</v>
@@ -2282,7 +2842,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B13" t="n">
         <v>22</v>
@@ -2290,7 +2850,7 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="B14" t="n">
         <v>19.7</v>
@@ -2298,7 +2858,7 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="B15" t="n">
         <v>47.1</v>
@@ -2306,7 +2866,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B16" t="n">
         <v>35.5</v>
@@ -2314,13 +2874,13 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="B17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B18" t="n">
         <v>22.1</v>
@@ -2328,7 +2888,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B19" t="n">
         <v>36.1</v>
@@ -2336,7 +2896,7 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B20" t="n">
         <v>21.1</v>
@@ -2344,19 +2904,19 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B23" t="n">
         <v>36.1</v>
@@ -2364,7 +2924,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B24" t="n">
         <v>34.7</v>
@@ -2372,7 +2932,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="B25" t="n">
         <v>36.1</v>
@@ -2380,7 +2940,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="B26" t="n">
         <v>39.4</v>
@@ -2388,7 +2948,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B27" t="n">
         <v>36</v>
@@ -2396,7 +2956,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="B28" t="n">
         <v>25.2</v>
@@ -2404,7 +2964,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="B29" t="n">
         <v>27.6</v>
@@ -2412,7 +2972,7 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B30" t="n">
         <v>16.4</v>
@@ -2420,7 +2980,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="B31" t="n">
         <v>24.8</v>
@@ -2428,7 +2988,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="B32" t="n">
         <v>13.3</v>
@@ -2436,7 +2996,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>66</v>
       </c>
       <c r="B33" t="n">
         <v>9.8</v>
@@ -2444,7 +3004,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="B34" t="n">
         <v>22.9</v>
@@ -2452,13 +3012,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="B35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>72</v>
       </c>
       <c r="B36" t="n">
         <v>26.4</v>
@@ -2466,7 +3026,7 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>74</v>
       </c>
       <c r="B37" t="n">
         <v>19.9</v>
@@ -2474,7 +3034,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="B38" t="n">
         <v>0.34</v>
@@ -2482,7 +3042,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>78</v>
       </c>
       <c r="B39" t="n">
         <v>33</v>
@@ -2490,7 +3050,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="B40" t="n">
         <v>41.5</v>
@@ -2498,7 +3058,7 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="B41" t="n">
         <v>13.3</v>
@@ -2506,7 +3066,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="B42" t="n">
         <v>22.9</v>
@@ -2514,7 +3074,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>86</v>
       </c>
       <c r="B43" t="n">
         <v>22.9</v>
@@ -2522,7 +3082,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B44" t="n">
         <v>9.8</v>
@@ -2530,7 +3090,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="B45" t="n">
         <v>24.8</v>
@@ -2538,7 +3098,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B46" t="n">
         <v>19.9</v>
@@ -2546,7 +3106,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="B47" t="n">
         <v>16.4</v>
@@ -2554,7 +3114,7 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>96</v>
       </c>
       <c r="B48" t="n">
         <v>22.9</v>
@@ -2562,7 +3122,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>98</v>
       </c>
       <c r="B49" t="n">
         <v>25.2</v>
@@ -2570,7 +3130,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
       <c r="B50" t="n">
         <v>41.5</v>
@@ -2578,7 +3138,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B51" t="n">
         <v>16.4</v>
@@ -2586,13 +3146,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>104</v>
       </c>
       <c r="B52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B53" t="n">
         <v>24.8</v>
@@ -2600,7 +3160,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="B54" t="n">
         <v>25.2</v>
@@ -2608,7 +3168,7 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="B55" t="n">
         <v>39.4</v>
@@ -2616,7 +3176,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>112</v>
       </c>
       <c r="B56" t="n">
         <v>9.8</v>
@@ -2624,7 +3184,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="B57" t="n">
         <v>26.4</v>
@@ -2632,7 +3192,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B58" t="n">
         <v>18.8</v>
@@ -2640,7 +3200,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>118</v>
       </c>
       <c r="B59" t="n">
         <v>33.5</v>
@@ -2648,7 +3208,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>120</v>
       </c>
       <c r="B60" t="n">
         <v>29.7</v>
@@ -2656,7 +3216,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>122</v>
       </c>
       <c r="B61" t="n">
         <v>17.2</v>
@@ -2664,7 +3224,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>124</v>
       </c>
       <c r="B62" t="n">
         <v>18.3</v>
@@ -2672,7 +3232,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>126</v>
       </c>
       <c r="B63" t="n">
         <v>41</v>
@@ -2680,7 +3240,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="B64" t="n">
         <v>14.4</v>
@@ -2688,7 +3248,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
       <c r="B65" t="n">
         <v>24.8</v>
@@ -2696,7 +3256,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="B66" t="n">
         <v>15.4</v>
@@ -2704,7 +3264,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
       <c r="B67" t="n">
         <v>19.7</v>
@@ -2712,7 +3272,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>136</v>
       </c>
       <c r="B68" t="n">
         <v>37.6</v>
@@ -2720,7 +3280,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="B69" t="n">
         <v>13.2</v>
@@ -2728,7 +3288,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>140</v>
       </c>
       <c r="B70" t="n">
         <v>57.5</v>
@@ -2736,13 +3296,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>142</v>
       </c>
       <c r="B71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="B72" t="n">
         <v>14.4</v>
@@ -2750,7 +3310,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B73" t="n">
         <v>17.2</v>
@@ -2758,7 +3318,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>148</v>
       </c>
       <c r="B74" t="n">
         <v>14.4</v>
@@ -2766,13 +3326,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="B75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>152</v>
       </c>
       <c r="B76" t="n">
         <v>29.7</v>
@@ -2780,7 +3340,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>154</v>
       </c>
       <c r="B77" t="n">
         <v>29.7</v>
@@ -2788,7 +3348,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>156</v>
       </c>
       <c r="B78" t="n">
         <v>33.5</v>
@@ -2796,7 +3356,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>158</v>
       </c>
       <c r="B79" t="n">
         <v>13.2</v>
@@ -2804,7 +3364,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>160</v>
       </c>
       <c r="B80" t="n">
         <v>14.4</v>
@@ -2812,7 +3372,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>162</v>
       </c>
       <c r="B81" t="n">
         <v>37.6</v>
@@ -2820,7 +3380,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>164</v>
       </c>
       <c r="B82" t="n">
         <v>33.5</v>
@@ -2828,7 +3388,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>166</v>
       </c>
       <c r="B83" t="n">
         <v>18.3</v>
@@ -2836,7 +3396,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>168</v>
       </c>
       <c r="B84" t="n">
         <v>24.8</v>
@@ -2844,7 +3404,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>170</v>
       </c>
       <c r="B85" t="n">
         <v>17.2</v>
@@ -2852,7 +3412,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
+        <v>172</v>
       </c>
       <c r="B86" t="n">
         <v>14.4</v>
@@ -2860,7 +3420,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
+        <v>174</v>
       </c>
       <c r="B87" t="n">
         <v>19.7</v>
@@ -2868,7 +3428,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
+        <v>176</v>
       </c>
       <c r="B88" t="n">
         <v>27.3</v>
@@ -2876,7 +3436,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
+        <v>178</v>
       </c>
       <c r="B89" t="n">
         <v>36.3</v>
@@ -2884,7 +3444,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
+        <v>180</v>
       </c>
       <c r="B90" t="n">
         <v>36</v>
@@ -2892,7 +3452,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
+        <v>182</v>
       </c>
       <c r="B91" t="n">
         <v>15.3</v>
@@ -2900,7 +3460,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
+        <v>184</v>
       </c>
       <c r="B92" t="n">
         <v>41.5</v>
@@ -2908,7 +3468,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
+        <v>186</v>
       </c>
       <c r="B93" t="n">
         <v>37.8</v>
@@ -2916,7 +3476,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="B94" t="n">
         <v>24.8</v>
@@ -2924,7 +3484,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
+        <v>190</v>
       </c>
       <c r="B95" t="n">
         <v>43.9</v>
@@ -2932,7 +3492,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>192</v>
       </c>
       <c r="B96" t="n">
         <v>64.4</v>
@@ -2940,7 +3500,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
+        <v>194</v>
       </c>
       <c r="B97" t="n">
         <v>45.7</v>
@@ -2948,13 +3508,13 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="B98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
+        <v>198</v>
       </c>
       <c r="B99" t="n">
         <v>34.4</v>
@@ -2962,7 +3522,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
+        <v>200</v>
       </c>
       <c r="B100" t="n">
         <v>34.9</v>
@@ -2970,7 +3530,7 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
+        <v>202</v>
       </c>
       <c r="B101" t="n">
         <v>29.9</v>
@@ -2978,7 +3538,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
+        <v>204</v>
       </c>
       <c r="B102" t="n">
         <v>41.4</v>
@@ -2986,13 +3546,13 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
+        <v>206</v>
       </c>
       <c r="B103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
+        <v>208</v>
       </c>
       <c r="B104" t="n">
         <v>45.7</v>
@@ -3000,7 +3560,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
+        <v>210</v>
       </c>
       <c r="B105" t="n">
         <v>45.7</v>
@@ -3008,7 +3568,7 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
+        <v>212</v>
       </c>
       <c r="B106" t="n">
         <v>55.7</v>
@@ -3016,7 +3576,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="B107" t="n">
         <v>36.3</v>
@@ -3024,7 +3584,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
+        <v>216</v>
       </c>
       <c r="B108" t="n">
         <v>64.4</v>
@@ -3032,7 +3592,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
+        <v>218</v>
       </c>
       <c r="B109" t="n">
         <v>31.4</v>
@@ -3040,7 +3600,7 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B110" t="n">
         <v>36.3</v>
@@ -3048,7 +3608,7 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
+        <v>222</v>
       </c>
       <c r="B111" t="n">
         <v>27.3</v>
@@ -3056,7 +3616,7 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
+        <v>224</v>
       </c>
       <c r="B112" t="n">
         <v>36.3</v>
@@ -3064,7 +3624,7 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
+        <v>226</v>
       </c>
       <c r="B113" t="n">
         <v>36.3</v>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -28,36 +28,498 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
     <t xml:space="preserve">Kalangala</t>
   </si>
   <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
     <t xml:space="preserve">Kampala</t>
   </si>
   <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
     <t xml:space="preserve">Kiboga</t>
   </si>
   <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
     <t xml:space="preserve">Luwero</t>
   </si>
   <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
     <t xml:space="preserve">Masaka</t>
   </si>
   <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
@@ -76,28 +538,148 @@
     <t xml:space="preserve">Mukono</t>
   </si>
   <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
     <t xml:space="preserve">Nakasongola</t>
   </si>
   <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
     <t xml:space="preserve">Rakai</t>
   </si>
   <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
     <t xml:space="preserve">Ssembabule</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kayunga</t>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
@@ -106,598 +688,16 @@
     <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lyantonde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mityana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakaseke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buikwe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukomansimbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butambala</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buvuma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gomba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kalungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyankwanzi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lwengo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bugiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Busia</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iganga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jinja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kapchorwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Katakwi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kumi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pallisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Soroti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tororo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaberamaido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mayuge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sironko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuria</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budaka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bududa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukedea</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Butaleja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaliro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manafwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namutumba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulambuli</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buyende</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibuku</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kween</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Luuka</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Namayingo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ngora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Serere</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Adjumani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Apac</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Gulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kitgum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kotido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lira</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moroto</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Moyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nebbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nakapiripirit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pader</t>
-  </si>
-  <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
     <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Abim</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amolatar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amuru</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dokolo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kaabong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Koboko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maracha</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oyam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agago</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Alebtong</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Amudat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lamwo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Napak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nwoya</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Otuke</t>
-  </si>
-  <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
     <t xml:space="preserve">Zombo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bundibugyo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bushenyi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hoima</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kabarole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kasese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kibaale</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kisoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masindi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mbarara</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntungamo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rukungiri</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kamwenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kanungu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyenjojo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buliisa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ibanda</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isingiro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiruhura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buhweju</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kiryandongo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Kyegegwa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mitooma</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ntoroko</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rubirizi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sheema</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -1190,9 +1190,7 @@
       <c r="C2" t="n">
         <v>2014</v>
       </c>
-      <c r="D2" t="n">
-        <v>61.6</v>
-      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
@@ -1205,7 +1203,7 @@
         <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>9.9</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="4">
@@ -1219,7 +1217,7 @@
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="5">
@@ -1233,7 +1231,7 @@
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>22.1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6">
@@ -1247,7 +1245,7 @@
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="7">
@@ -1261,7 +1259,7 @@
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>21.1</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="8">
@@ -1275,7 +1273,7 @@
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>35.5</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="9">
@@ -1289,7 +1287,7 @@
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>22.1</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="10">
@@ -1303,7 +1301,7 @@
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>52.6</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="11">
@@ -1317,7 +1315,7 @@
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="12">
@@ -1331,7 +1329,7 @@
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>47.1</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="13">
@@ -1345,7 +1343,7 @@
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="14">
@@ -1359,7 +1357,7 @@
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>19.7</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="15">
@@ -1373,7 +1371,7 @@
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>47.1</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="16">
@@ -1387,7 +1385,7 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>35.5</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="17">
@@ -1400,7 +1398,9 @@
       <c r="C17" t="n">
         <v>2014</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="n">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
@@ -1413,7 +1413,7 @@
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>22.1</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="19">
@@ -1427,7 +1427,7 @@
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>36.1</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="20">
@@ -1441,7 +1441,7 @@
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>21.1</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="21">
@@ -1466,7 +1466,9 @@
       <c r="C22" t="n">
         <v>2014</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1479,7 +1481,7 @@
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="24">
@@ -1493,7 +1495,7 @@
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>34.7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
@@ -1507,7 +1509,7 @@
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>36.1</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="26">
@@ -1521,7 +1523,7 @@
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>39.4</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="27">
@@ -1534,9 +1536,7 @@
       <c r="C27" t="n">
         <v>2014</v>
       </c>
-      <c r="D27" t="n">
-        <v>36</v>
-      </c>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1549,7 +1549,7 @@
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>25.2</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="29">
@@ -1563,7 +1563,7 @@
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>27.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="30">
@@ -1576,9 +1576,7 @@
       <c r="C30" t="n">
         <v>2014</v>
       </c>
-      <c r="D30" t="n">
-        <v>16.4</v>
-      </c>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1591,7 +1589,7 @@
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>24.8</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
@@ -1605,7 +1603,7 @@
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>13.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -1619,7 +1617,7 @@
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>9.8</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="34">
@@ -1633,7 +1631,7 @@
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>22.9</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="35">
@@ -1646,7 +1644,9 @@
       <c r="C35" t="n">
         <v>2014</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="n">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1659,7 +1659,7 @@
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="37">
@@ -1672,9 +1672,7 @@
       <c r="C37" t="n">
         <v>2014</v>
       </c>
-      <c r="D37" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="D37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1687,7 +1685,7 @@
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>0.34</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="39">
@@ -1701,7 +1699,7 @@
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>33</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="40">
@@ -1715,7 +1713,7 @@
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>41.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="41">
@@ -1729,7 +1727,7 @@
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>13.3</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="42">
@@ -1743,7 +1741,7 @@
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>22.9</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="43">
@@ -1757,7 +1755,7 @@
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>22.9</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="44">
@@ -1771,7 +1769,7 @@
         <v>2014</v>
       </c>
       <c r="D44" t="n">
-        <v>9.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="45">
@@ -1785,7 +1783,7 @@
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>24.8</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="46">
@@ -1799,7 +1797,7 @@
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>19.9</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="47">
@@ -1813,7 +1811,7 @@
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>16.4</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="48">
@@ -1827,7 +1825,7 @@
         <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>22.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="49">
@@ -1841,7 +1839,7 @@
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>25.2</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="50">
@@ -1855,7 +1853,7 @@
         <v>2014</v>
       </c>
       <c r="D50" t="n">
-        <v>41.5</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="51">
@@ -1869,7 +1867,7 @@
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>16.4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
@@ -1882,7 +1880,9 @@
       <c r="C52" t="n">
         <v>2014</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
@@ -1895,7 +1895,7 @@
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>24.8</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="54">
@@ -1908,9 +1908,7 @@
       <c r="C54" t="n">
         <v>2014</v>
       </c>
-      <c r="D54" t="n">
-        <v>25.2</v>
-      </c>
+      <c r="D54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
@@ -1923,7 +1921,7 @@
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>39.4</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="56">
@@ -1937,7 +1935,7 @@
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>9.8</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="57">
@@ -1951,7 +1949,7 @@
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>26.4</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="58">
@@ -1965,7 +1963,7 @@
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>18.8</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="59">
@@ -1979,7 +1977,7 @@
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>33.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="60">
@@ -1993,7 +1991,7 @@
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>29.7</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="61">
@@ -2007,7 +2005,7 @@
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>17.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
@@ -2021,7 +2019,7 @@
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>18.3</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="63">
@@ -2035,7 +2033,7 @@
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>41</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="64">
@@ -2049,7 +2047,7 @@
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>14.4</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="65">
@@ -2063,7 +2061,7 @@
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>24.8</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="66">
@@ -2077,7 +2075,7 @@
         <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>15.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="67">
@@ -2091,7 +2089,7 @@
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>19.7</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="68">
@@ -2105,7 +2103,7 @@
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>37.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="69">
@@ -2119,7 +2117,7 @@
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>13.2</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="70">
@@ -2133,7 +2131,7 @@
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>57.5</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="71">
@@ -2146,7 +2144,9 @@
       <c r="C71" t="n">
         <v>2014</v>
       </c>
-      <c r="D71"/>
+      <c r="D71" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -2159,7 +2159,7 @@
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>14.4</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="73">
@@ -2173,7 +2173,7 @@
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>17.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="74">
@@ -2187,7 +2187,7 @@
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>14.4</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="75">
@@ -2200,7 +2200,9 @@
       <c r="C75" t="n">
         <v>2014</v>
       </c>
-      <c r="D75"/>
+      <c r="D75" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
@@ -2213,7 +2215,7 @@
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>29.7</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="77">
@@ -2227,7 +2229,7 @@
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>29.7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
@@ -2241,7 +2243,7 @@
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>33.5</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="79">
@@ -2255,7 +2257,7 @@
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>13.2</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="80">
@@ -2269,7 +2271,7 @@
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>14.4</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="81">
@@ -2283,7 +2285,7 @@
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>37.6</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="82">
@@ -2297,7 +2299,7 @@
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>33.5</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="83">
@@ -2311,7 +2313,7 @@
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="84">
@@ -2325,7 +2327,7 @@
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>24.8</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="85">
@@ -2339,7 +2341,7 @@
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>17.2</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="86">
@@ -2353,7 +2355,7 @@
         <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>14.4</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="87">
@@ -2367,7 +2369,7 @@
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>19.7</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="88">
@@ -2380,9 +2382,7 @@
       <c r="C88" t="n">
         <v>2014</v>
       </c>
-      <c r="D88" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="D88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
@@ -2395,7 +2395,7 @@
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>36.3</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="90">
@@ -2409,7 +2409,7 @@
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>36</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="91">
@@ -2423,7 +2423,7 @@
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>15.3</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="92">
@@ -2437,7 +2437,7 @@
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>41.5</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="93">
@@ -2451,7 +2451,7 @@
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>37.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="94">
@@ -2465,7 +2465,7 @@
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>24.8</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="95">
@@ -2479,7 +2479,7 @@
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>43.9</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="96">
@@ -2492,9 +2492,7 @@
       <c r="C96" t="n">
         <v>2014</v>
       </c>
-      <c r="D96" t="n">
-        <v>64.4</v>
-      </c>
+      <c r="D96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
@@ -2507,7 +2505,7 @@
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>45.7</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="98">
@@ -2520,7 +2518,9 @@
       <c r="C98" t="n">
         <v>2014</v>
       </c>
-      <c r="D98"/>
+      <c r="D98" t="n">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
@@ -2533,7 +2533,7 @@
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>34.4</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="100">
@@ -2547,7 +2547,7 @@
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>34.9</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="101">
@@ -2560,9 +2560,7 @@
       <c r="C101" t="n">
         <v>2014</v>
       </c>
-      <c r="D101" t="n">
-        <v>29.9</v>
-      </c>
+      <c r="D101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
@@ -2575,7 +2573,7 @@
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>41.4</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="103">
@@ -2588,7 +2586,9 @@
       <c r="C103" t="n">
         <v>2014</v>
       </c>
-      <c r="D103"/>
+      <c r="D103" t="n">
+        <v>36.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
@@ -2601,7 +2601,7 @@
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>45.7</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="105">
@@ -2615,7 +2615,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>45.7</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="106">
@@ -2629,7 +2629,7 @@
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>55.7</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="107">
@@ -2643,7 +2643,7 @@
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>36.3</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="108">
@@ -2657,7 +2657,7 @@
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>64.4</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="109">
@@ -2671,7 +2671,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>31.4</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="110">
@@ -2685,7 +2685,7 @@
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>36.3</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="111">
@@ -2699,7 +2699,7 @@
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>27.3</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="112">
@@ -2713,7 +2713,7 @@
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>36.3</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="113">
@@ -2727,7 +2727,7 @@
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>36.3</v>
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>
@@ -2749,6 +2749,9 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2756,878 +2759,1214 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>61.6</v>
-      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="n">
-        <v>9.9</v>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="n">
-        <v>34.7</v>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="n">
-        <v>22.1</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="n">
-        <v>36.1</v>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="n">
-        <v>21.1</v>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="n">
-        <v>35.5</v>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>22.1</v>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="n">
-        <v>52.6</v>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="n">
-        <v>54.3</v>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="n">
-        <v>47.1</v>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="n">
-        <v>22</v>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="n">
-        <v>19.7</v>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="n">
-        <v>47.1</v>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="n">
-        <v>35.5</v>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17"/>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="n">
-        <v>22.1</v>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="n">
-        <v>36.1</v>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="n">
-        <v>21.1</v>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21"/>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22"/>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="n">
-        <v>36.1</v>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="n">
-        <v>34.7</v>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="n">
-        <v>36.1</v>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="n">
-        <v>39.4</v>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="n">
-        <v>36</v>
-      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="n">
-        <v>25.2</v>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="n">
-        <v>27.6</v>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="n">
-        <v>16.4</v>
-      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="n">
-        <v>24.8</v>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="n">
-        <v>13.3</v>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="n">
-        <v>9.8</v>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="n">
-        <v>22.9</v>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35"/>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="n">
-        <v>26.4</v>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="n">
-        <v>0.34</v>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>15.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="n">
-        <v>33</v>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="n">
-        <v>41.5</v>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="n">
-        <v>13.3</v>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>61.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="n">
-        <v>22.9</v>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="n">
-        <v>22.9</v>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="n">
-        <v>9.8</v>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="n">
-        <v>24.8</v>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="n">
-        <v>19.9</v>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>34.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="n">
-        <v>16.4</v>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>29.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="n">
-        <v>22.9</v>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="n">
-        <v>25.2</v>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="n">
-        <v>41.5</v>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="n">
-        <v>16.4</v>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52"/>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="n">
-        <v>24.8</v>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="n">
-        <v>25.2</v>
-      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="n">
-        <v>39.4</v>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>55.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="n">
-        <v>9.8</v>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>64.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="n">
-        <v>26.4</v>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="n">
-        <v>18.8</v>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="n">
-        <v>33.5</v>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="n">
-        <v>29.7</v>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>33.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="n">
-        <v>17.2</v>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="n">
-        <v>18.3</v>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="n">
-        <v>41</v>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="n">
-        <v>14.4</v>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="n">
-        <v>24.8</v>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="n">
-        <v>15.4</v>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>41.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="n">
-        <v>19.7</v>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="n">
-        <v>37.6</v>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="n">
-        <v>13.2</v>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="n">
-        <v>57.5</v>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>22.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71"/>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="n">
-        <v>14.4</v>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="n">
-        <v>17.2</v>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="n">
-        <v>14.4</v>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75"/>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="n">
-        <v>29.7</v>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>64.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="n">
-        <v>29.7</v>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="n">
-        <v>33.5</v>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="n">
-        <v>13.2</v>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="n">
-        <v>14.4</v>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="n">
-        <v>37.6</v>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="n">
-        <v>33.5</v>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="n">
-        <v>18.3</v>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="n">
-        <v>24.8</v>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="n">
-        <v>17.2</v>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="n">
-        <v>14.4</v>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>22.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="n">
-        <v>19.7</v>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>37.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="n">
-        <v>36.3</v>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="n">
-        <v>36</v>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>39.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="n">
-        <v>15.3</v>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>25.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="n">
-        <v>41.5</v>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="n">
-        <v>37.8</v>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>19.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="n">
-        <v>24.8</v>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="n">
-        <v>43.9</v>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="n">
-        <v>64.4</v>
-      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="n">
-        <v>45.7</v>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98"/>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="n">
-        <v>34.4</v>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>33.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="n">
-        <v>34.9</v>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="n">
-        <v>29.9</v>
-      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="n">
-        <v>41.4</v>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>54.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103"/>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>36.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="n">
-        <v>45.7</v>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="n">
-        <v>45.7</v>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="n">
-        <v>55.7</v>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="n">
-        <v>36.3</v>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="n">
-        <v>64.4</v>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="n">
-        <v>31.4</v>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="n">
-        <v>36.3</v>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="n">
-        <v>27.3</v>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>19.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="n">
-        <v>36.3</v>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>57.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="n">
-        <v>36.3</v>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
   <si>
     <t xml:space="preserve">id</t>
   </si>
@@ -28,340 +28,676 @@
     <t xml:space="preserve">value</t>
   </si>
   <si>
+    <t xml:space="preserve">d314</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Abim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjumani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agago</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d323</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alebtong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amolatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amudat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d216</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuria</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d316</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amuru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d302</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apac</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d217</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d218</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bududa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d201</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bugiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d420</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buhweju</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buikwe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukedea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukomansimbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d225</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulambuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d416</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buliisa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d401</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bundibugyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d402</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bushenyi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d202</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Busia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d221</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butaleja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butambala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buvuma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buyende</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d317</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dokolo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gomba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d304</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d403</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hoima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d417</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ibanda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d203</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iganga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d418</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isingiro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jinja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d318</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaabong</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d404</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d405</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kabarole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d213</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaberamaido</t>
+  </si>
+  <si>
     <t xml:space="preserve">d101</t>
   </si>
   <si>
+    <t xml:space="preserve">Kalangala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d222</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kaliro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kalungu</t>
+  </si>
+  <si>
     <t xml:space="preserve">d102</t>
   </si>
   <si>
+    <t xml:space="preserve">Kampala</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d205</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamuli</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d413</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kamwenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d414</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kanungu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d206</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kapchorwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d406</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kasese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Katakwi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kayunga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibaale</t>
+  </si>
+  <si>
     <t xml:space="preserve">d103</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiboga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d227</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kibuku</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d419</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiruhura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d421</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiryandongo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d408</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kisoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d305</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kitgum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d319</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Koboko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d306</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kotido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kumi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kween</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyankwanzi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d422</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyegegwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d415</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kyenjojo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d326</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamwo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d307</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lira</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d229</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luuka</t>
+  </si>
+  <si>
     <t xml:space="preserve">d104</t>
   </si>
   <si>
+    <t xml:space="preserve">Luwero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d124</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lwengo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lyantonde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d223</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manafwa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maracha</t>
+  </si>
+  <si>
     <t xml:space="preserve">d105</t>
   </si>
   <si>
+    <t xml:space="preserve">Masaka</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d409</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masindi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mayuge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d209</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mbarara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d423</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mitooma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mityana</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d308</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moroto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d309</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moyo</t>
+  </si>
+  <si>
     <t xml:space="preserve">d106</t>
   </si>
   <si>
+    <t xml:space="preserve">Mpigi</t>
+  </si>
+  <si>
     <t xml:space="preserve">d107</t>
   </si>
   <si>
+    <t xml:space="preserve">Mubende</t>
+  </si>
+  <si>
     <t xml:space="preserve">d108</t>
   </si>
   <si>
+    <t xml:space="preserve">Mukono</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d311</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakapiripirit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nakaseke</t>
+  </si>
+  <si>
     <t xml:space="preserve">d109</t>
   </si>
   <si>
+    <t xml:space="preserve">Nakasongola</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d230</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namayingo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d224</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Namutumba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d327</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Napak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d310</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nebbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d231</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ngora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d424</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntoroko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d411</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ntungamo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d328</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nwoya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d329</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Otuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d321</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oyam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d312</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pader</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pallisa</t>
+  </si>
+  <si>
     <t xml:space="preserve">d110</t>
   </si>
   <si>
+    <t xml:space="preserve">Rakai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d425</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rubirizi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d412</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rukungiri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serere</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sheema</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sironko</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d211</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soroti</t>
+  </si>
+  <si>
     <t xml:space="preserve">d111</t>
   </si>
   <si>
-    <t xml:space="preserve">d112</t>
+    <t xml:space="preserve">Ssembabule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">d212</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tororo</t>
   </si>
   <si>
     <t xml:space="preserve">d113</t>
   </si>
   <si>
-    <t xml:space="preserve">d114</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d116</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d117</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d118</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d120</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d202</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d203</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d206</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d207</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d209</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d210</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d211</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d213</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d214</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d216</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d217</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d220</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d223</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d224</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d225</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d229</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d230</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d301</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d302</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d303</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d304</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d305</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d306</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d307</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d308</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d309</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d310</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d311</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d312</t>
+    <t xml:space="preserve">Wakiso</t>
   </si>
   <si>
     <t xml:space="preserve">d313</t>
   </si>
   <si>
-    <t xml:space="preserve">d314</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d315</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d316</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d317</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d318</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d319</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d321</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d322</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d323</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d324</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d325</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d326</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d327</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d328</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d329</t>
+    <t xml:space="preserve">Yumbe</t>
   </si>
   <si>
     <t xml:space="preserve">d330</t>
   </si>
   <si>
-    <t xml:space="preserve">d401</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d402</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d403</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d404</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d405</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d406</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d408</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d409</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d410</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d411</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d412</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d413</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d414</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d415</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d416</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d417</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d418</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d419</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d420</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d421</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d422</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d423</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d424</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d425</t>
-  </si>
-  <si>
-    <t xml:space="preserve">d426</t>
+    <t xml:space="preserve">Zombo</t>
   </si>
   <si>
     <t xml:space="preserve">2014</t>
@@ -737,22 +1073,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>118</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5">
@@ -760,7 +1096,7 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>121</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
@@ -768,52 +1104,52 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>122</v>
+        <v>234</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>123</v>
+        <v>235</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>124</v>
+        <v>236</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>125</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>128</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>129</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -848,233 +1184,273 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2"/>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" t="n">
         <v>2014</v>
       </c>
-      <c r="D2" t="n">
-        <v>61.6</v>
-      </c>
+      <c r="D2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3"/>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
       <c r="C3" t="n">
         <v>2014</v>
       </c>
       <c r="D3" t="n">
-        <v>9.9</v>
+        <v>18.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4"/>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" t="n">
         <v>2014</v>
       </c>
       <c r="D4" t="n">
-        <v>34.7</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5"/>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
       <c r="C5" t="n">
         <v>2014</v>
       </c>
       <c r="D5" t="n">
-        <v>22.1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6"/>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
       <c r="C6" t="n">
         <v>2014</v>
       </c>
       <c r="D6" t="n">
-        <v>36.1</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7"/>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
       <c r="C7" t="n">
         <v>2014</v>
       </c>
       <c r="D7" t="n">
-        <v>21.1</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8"/>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
       <c r="C8" t="n">
         <v>2014</v>
       </c>
       <c r="D8" t="n">
-        <v>35.5</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9"/>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
       <c r="C9" t="n">
         <v>2014</v>
       </c>
       <c r="D9" t="n">
-        <v>22.1</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10"/>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
       <c r="C10" t="n">
         <v>2014</v>
       </c>
       <c r="D10" t="n">
-        <v>52.6</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11"/>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
       <c r="C11" t="n">
         <v>2014</v>
       </c>
       <c r="D11" t="n">
-        <v>54.3</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12"/>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
       <c r="C12" t="n">
         <v>2014</v>
       </c>
       <c r="D12" t="n">
-        <v>47.1</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13"/>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
       <c r="C13" t="n">
         <v>2014</v>
       </c>
       <c r="D13" t="n">
-        <v>22</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14"/>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
       <c r="C14" t="n">
         <v>2014</v>
       </c>
       <c r="D14" t="n">
-        <v>19.7</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15"/>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
       <c r="C15" t="n">
         <v>2014</v>
       </c>
       <c r="D15" t="n">
-        <v>47.1</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16"/>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
       <c r="C16" t="n">
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>35.5</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
       <c r="C17" t="n">
         <v>2014</v>
       </c>
-      <c r="D17"/>
+      <c r="D17" t="n">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18"/>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
       <c r="C18" t="n">
         <v>2014</v>
       </c>
       <c r="D18" t="n">
-        <v>22.1</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19"/>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
       <c r="C19" t="n">
         <v>2014</v>
       </c>
       <c r="D19" t="n">
-        <v>36.1</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20"/>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
       <c r="C20" t="n">
         <v>2014</v>
       </c>
       <c r="D20" t="n">
-        <v>21.1</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
       <c r="C21" t="n">
         <v>2014</v>
       </c>
@@ -1082,1092 +1458,1276 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
       <c r="C22" t="n">
         <v>2014</v>
       </c>
-      <c r="D22"/>
+      <c r="D22" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23"/>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
       <c r="C23" t="n">
         <v>2014</v>
       </c>
       <c r="D23" t="n">
-        <v>36.1</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24"/>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="n">
         <v>2014</v>
       </c>
       <c r="D24" t="n">
-        <v>34.7</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25"/>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
       <c r="C25" t="n">
         <v>2014</v>
       </c>
       <c r="D25" t="n">
-        <v>36.1</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26"/>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
       <c r="C26" t="n">
         <v>2014</v>
       </c>
       <c r="D26" t="n">
-        <v>39.4</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27"/>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
       <c r="C27" t="n">
         <v>2014</v>
       </c>
-      <c r="D27" t="n">
-        <v>36</v>
-      </c>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28"/>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
       <c r="C28" t="n">
         <v>2014</v>
       </c>
       <c r="D28" t="n">
-        <v>25.2</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29"/>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
       <c r="C29" t="n">
         <v>2014</v>
       </c>
       <c r="D29" t="n">
-        <v>27.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30"/>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
       <c r="C30" t="n">
         <v>2014</v>
       </c>
-      <c r="D30" t="n">
-        <v>16.4</v>
-      </c>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31"/>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
       <c r="C31" t="n">
         <v>2014</v>
       </c>
       <c r="D31" t="n">
-        <v>24.8</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32"/>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
       <c r="C32" t="n">
         <v>2014</v>
       </c>
       <c r="D32" t="n">
-        <v>13.3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33"/>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
       <c r="C33" t="n">
         <v>2014</v>
       </c>
       <c r="D33" t="n">
-        <v>9.8</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34"/>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
       <c r="C34" t="n">
         <v>2014</v>
       </c>
       <c r="D34" t="n">
-        <v>22.9</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
       <c r="C35" t="n">
         <v>2014</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="n">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36"/>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
       <c r="C36" t="n">
         <v>2014</v>
       </c>
       <c r="D36" t="n">
-        <v>26.4</v>
+        <v>27.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37"/>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
       <c r="C37" t="n">
         <v>2014</v>
       </c>
-      <c r="D37" t="n">
-        <v>19.9</v>
-      </c>
+      <c r="D37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38"/>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
       <c r="C38" t="n">
         <v>2014</v>
       </c>
       <c r="D38" t="n">
-        <v>0.34</v>
+        <v>15.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39"/>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
       <c r="C39" t="n">
         <v>2014</v>
       </c>
       <c r="D39" t="n">
-        <v>33</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40"/>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
       <c r="C40" t="n">
         <v>2014</v>
       </c>
       <c r="D40" t="n">
-        <v>41.5</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41"/>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
       <c r="C41" t="n">
         <v>2014</v>
       </c>
       <c r="D41" t="n">
-        <v>13.3</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42"/>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
       <c r="C42" t="n">
         <v>2014</v>
       </c>
       <c r="D42" t="n">
-        <v>22.9</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43"/>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
       <c r="C43" t="n">
         <v>2014</v>
       </c>
       <c r="D43" t="n">
-        <v>22.9</v>
+        <v>36.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44"/>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
       <c r="C44" t="n">
         <v>2014</v>
       </c>
       <c r="D44" t="n">
-        <v>9.8</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45"/>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
       <c r="C45" t="n">
         <v>2014</v>
       </c>
       <c r="D45" t="n">
-        <v>24.8</v>
+        <v>16.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46"/>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
       <c r="C46" t="n">
         <v>2014</v>
       </c>
       <c r="D46" t="n">
-        <v>19.9</v>
+        <v>34.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47"/>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
       <c r="C47" t="n">
         <v>2014</v>
       </c>
       <c r="D47" t="n">
-        <v>16.4</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48"/>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
       <c r="C48" t="n">
         <v>2014</v>
       </c>
       <c r="D48" t="n">
-        <v>22.9</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49"/>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
       <c r="C49" t="n">
         <v>2014</v>
       </c>
       <c r="D49" t="n">
-        <v>25.2</v>
+        <v>37.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50"/>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
       <c r="C50" t="n">
         <v>2014</v>
       </c>
       <c r="D50" t="n">
-        <v>41.5</v>
+        <v>13.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51"/>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
       <c r="C51" t="n">
         <v>2014</v>
       </c>
       <c r="D51" t="n">
-        <v>16.4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
       <c r="C52" t="n">
         <v>2014</v>
       </c>
-      <c r="D52"/>
+      <c r="D52" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53"/>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
       <c r="C53" t="n">
         <v>2014</v>
       </c>
       <c r="D53" t="n">
-        <v>24.8</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54"/>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
       <c r="C54" t="n">
         <v>2014</v>
       </c>
-      <c r="D54" t="n">
-        <v>25.2</v>
-      </c>
+      <c r="D54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55"/>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
       <c r="C55" t="n">
         <v>2014</v>
       </c>
       <c r="D55" t="n">
-        <v>39.4</v>
+        <v>55.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56"/>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
       <c r="C56" t="n">
         <v>2014</v>
       </c>
       <c r="D56" t="n">
-        <v>9.8</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57"/>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
       <c r="C57" t="n">
         <v>2014</v>
       </c>
       <c r="D57" t="n">
-        <v>26.4</v>
+        <v>43.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58"/>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
       <c r="C58" t="n">
         <v>2014</v>
       </c>
       <c r="D58" t="n">
-        <v>18.8</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59"/>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
       <c r="C59" t="n">
         <v>2014</v>
       </c>
       <c r="D59" t="n">
-        <v>33.5</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60"/>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
       <c r="C60" t="n">
         <v>2014</v>
       </c>
       <c r="D60" t="n">
-        <v>29.7</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61"/>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
       <c r="C61" t="n">
         <v>2014</v>
       </c>
       <c r="D61" t="n">
-        <v>17.2</v>
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62"/>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
       <c r="C62" t="n">
         <v>2014</v>
       </c>
       <c r="D62" t="n">
-        <v>18.3</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63"/>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
       <c r="C63" t="n">
         <v>2014</v>
       </c>
       <c r="D63" t="n">
-        <v>41</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64"/>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
       <c r="C64" t="n">
         <v>2014</v>
       </c>
       <c r="D64" t="n">
-        <v>14.4</v>
+        <v>34.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65"/>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
       <c r="C65" t="n">
         <v>2014</v>
       </c>
       <c r="D65" t="n">
-        <v>24.8</v>
+        <v>31.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66"/>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
       <c r="C66" t="n">
         <v>2014</v>
       </c>
       <c r="D66" t="n">
-        <v>15.4</v>
+        <v>41.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67"/>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
       <c r="C67" t="n">
         <v>2014</v>
       </c>
       <c r="D67" t="n">
-        <v>19.7</v>
+        <v>18.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68"/>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
       <c r="C68" t="n">
         <v>2014</v>
       </c>
       <c r="D68" t="n">
-        <v>37.6</v>
+        <v>14.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69"/>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
       <c r="C69" t="n">
         <v>2014</v>
       </c>
       <c r="D69" t="n">
-        <v>13.2</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70"/>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
       <c r="C70" t="n">
         <v>2014</v>
       </c>
       <c r="D70" t="n">
-        <v>57.5</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
       <c r="C71" t="n">
         <v>2014</v>
       </c>
-      <c r="D71"/>
+      <c r="D71" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72"/>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
       <c r="C72" t="n">
         <v>2014</v>
       </c>
       <c r="D72" t="n">
-        <v>14.4</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73"/>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
       <c r="C73" t="n">
         <v>2014</v>
       </c>
       <c r="D73" t="n">
-        <v>17.2</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74"/>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
       <c r="C74" t="n">
         <v>2014</v>
       </c>
       <c r="D74" t="n">
-        <v>14.4</v>
+        <v>29.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
       <c r="C75" t="n">
         <v>2014</v>
       </c>
-      <c r="D75"/>
+      <c r="D75" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76"/>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
       <c r="C76" t="n">
         <v>2014</v>
       </c>
       <c r="D76" t="n">
-        <v>29.7</v>
+        <v>64.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77"/>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
       <c r="C77" t="n">
         <v>2014</v>
       </c>
       <c r="D77" t="n">
-        <v>29.7</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78"/>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
       <c r="C78" t="n">
         <v>2014</v>
       </c>
       <c r="D78" t="n">
-        <v>33.5</v>
+        <v>22.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79"/>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
       <c r="C79" t="n">
         <v>2014</v>
       </c>
       <c r="D79" t="n">
-        <v>13.2</v>
+        <v>45.7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80"/>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
       <c r="C80" t="n">
         <v>2014</v>
       </c>
       <c r="D80" t="n">
-        <v>14.4</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81"/>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
       <c r="C81" t="n">
         <v>2014</v>
       </c>
       <c r="D81" t="n">
-        <v>37.6</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82"/>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
       <c r="C82" t="n">
         <v>2014</v>
       </c>
       <c r="D82" t="n">
-        <v>33.5</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83"/>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
       <c r="C83" t="n">
         <v>2014</v>
       </c>
       <c r="D83" t="n">
-        <v>18.3</v>
+        <v>15.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84"/>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
       <c r="C84" t="n">
         <v>2014</v>
       </c>
       <c r="D84" t="n">
-        <v>24.8</v>
+        <v>21.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85"/>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
       <c r="C85" t="n">
         <v>2014</v>
       </c>
       <c r="D85" t="n">
-        <v>17.2</v>
+        <v>35.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86"/>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
       <c r="C86" t="n">
         <v>2014</v>
       </c>
       <c r="D86" t="n">
-        <v>14.4</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87"/>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
       <c r="C87" t="n">
         <v>2014</v>
       </c>
       <c r="D87" t="n">
-        <v>19.7</v>
+        <v>37.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88"/>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
       <c r="C88" t="n">
         <v>2014</v>
       </c>
-      <c r="D88" t="n">
-        <v>27.3</v>
-      </c>
+      <c r="D88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89"/>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
       <c r="C89" t="n">
         <v>2014</v>
       </c>
       <c r="D89" t="n">
-        <v>36.3</v>
+        <v>52.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90"/>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
       <c r="C90" t="n">
         <v>2014</v>
       </c>
       <c r="D90" t="n">
-        <v>36</v>
+        <v>39.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91"/>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
       <c r="C91" t="n">
         <v>2014</v>
       </c>
       <c r="D91" t="n">
-        <v>15.3</v>
+        <v>25.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92"/>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
       <c r="C92" t="n">
         <v>2014</v>
       </c>
       <c r="D92" t="n">
-        <v>41.5</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93"/>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
       <c r="C93" t="n">
         <v>2014</v>
       </c>
       <c r="D93" t="n">
-        <v>37.8</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94"/>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
       <c r="C94" t="n">
         <v>2014</v>
       </c>
       <c r="D94" t="n">
-        <v>24.8</v>
+        <v>9.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95"/>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
       <c r="C95" t="n">
         <v>2014</v>
       </c>
       <c r="D95" t="n">
-        <v>43.9</v>
+        <v>27.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96"/>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
       <c r="C96" t="n">
         <v>2014</v>
       </c>
-      <c r="D96" t="n">
-        <v>64.4</v>
-      </c>
+      <c r="D96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97"/>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
       <c r="C97" t="n">
         <v>2014</v>
       </c>
       <c r="D97" t="n">
-        <v>45.7</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
       <c r="C98" t="n">
         <v>2014</v>
       </c>
-      <c r="D98"/>
+      <c r="D98" t="n">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99"/>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
       <c r="C99" t="n">
         <v>2014</v>
       </c>
       <c r="D99" t="n">
-        <v>34.4</v>
+        <v>33.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100"/>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
       <c r="C100" t="n">
         <v>2014</v>
       </c>
       <c r="D100" t="n">
-        <v>34.9</v>
+        <v>13.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101"/>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
       <c r="C101" t="n">
         <v>2014</v>
       </c>
-      <c r="D101" t="n">
-        <v>29.9</v>
-      </c>
+      <c r="D101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102"/>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
       <c r="C102" t="n">
         <v>2014</v>
       </c>
       <c r="D102" t="n">
-        <v>41.4</v>
+        <v>54.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
       <c r="C103" t="n">
         <v>2014</v>
       </c>
-      <c r="D103"/>
+      <c r="D103" t="n">
+        <v>36.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104"/>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
       <c r="C104" t="n">
         <v>2014</v>
       </c>
       <c r="D104" t="n">
-        <v>45.7</v>
+        <v>34.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105"/>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
       <c r="C105" t="n">
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>45.7</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106"/>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
       <c r="C106" t="n">
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>55.7</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107"/>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
       <c r="C107" t="n">
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>36.3</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108"/>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
       <c r="C108" t="n">
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>64.4</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109"/>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
       <c r="C109" t="n">
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>31.4</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110"/>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
       <c r="C110" t="n">
         <v>2014</v>
       </c>
       <c r="D110" t="n">
-        <v>36.3</v>
+        <v>19.9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111"/>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
       <c r="C111" t="n">
         <v>2014</v>
       </c>
       <c r="D111" t="n">
-        <v>27.3</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112"/>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
       <c r="C112" t="n">
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>36.3</v>
+        <v>57.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113"/>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
       <c r="C113" t="n">
         <v>2014</v>
       </c>
       <c r="D113" t="n">
-        <v>36.3</v>
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>
@@ -2189,885 +2749,1224 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>116</v>
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="n">
-        <v>61.6</v>
-      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.9</v>
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>18.8</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>34.7</v>
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="n">
-        <v>22.1</v>
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="n">
-        <v>36.1</v>
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="n">
-        <v>21.1</v>
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37.6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="n">
-        <v>35.5</v>
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="n">
-        <v>22.1</v>
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" t="n">
-        <v>52.6</v>
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" t="n">
+        <v>33.5</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="n">
-        <v>54.3</v>
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="n">
-        <v>47.1</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" t="n">
-        <v>22</v>
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B14" t="n">
-        <v>19.7</v>
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="n">
+        <v>39.4</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" t="n">
-        <v>47.1</v>
+        <v>30</v>
+      </c>
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" t="n">
-        <v>35.5</v>
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>22.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17"/>
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.8</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" t="n">
-        <v>22.1</v>
+        <v>36</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19" t="n">
-        <v>36.1</v>
+        <v>38</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" t="n">
-        <v>21.1</v>
+        <v>40</v>
+      </c>
+      <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>23</v>
-      </c>
-      <c r="B21"/>
+        <v>42</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22"/>
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="n">
+        <v>27.3</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" t="n">
-        <v>36.1</v>
+        <v>46</v>
+      </c>
+      <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>26</v>
-      </c>
-      <c r="B24" t="n">
-        <v>34.7</v>
+        <v>48</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>27</v>
-      </c>
-      <c r="B25" t="n">
-        <v>36.1</v>
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>28</v>
-      </c>
-      <c r="B26" t="n">
-        <v>39.4</v>
+        <v>52</v>
+      </c>
+      <c r="B26" t="s">
+        <v>53</v>
+      </c>
+      <c r="C26" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>29</v>
-      </c>
-      <c r="B27" t="n">
-        <v>36</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="B27" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>30</v>
-      </c>
-      <c r="B28" t="n">
-        <v>25.2</v>
+        <v>56</v>
+      </c>
+      <c r="B28" t="s">
+        <v>57</v>
+      </c>
+      <c r="C28" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B29" t="n">
-        <v>27.6</v>
+        <v>58</v>
+      </c>
+      <c r="B29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>32</v>
-      </c>
-      <c r="B30" t="n">
-        <v>16.4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>33</v>
-      </c>
-      <c r="B31" t="n">
-        <v>24.8</v>
+        <v>62</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" t="n">
-        <v>13.3</v>
+        <v>64</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C32" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>35</v>
-      </c>
-      <c r="B33" t="n">
-        <v>9.8</v>
+        <v>66</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" t="n">
-        <v>22.9</v>
+        <v>68</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="n">
+        <v>25.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>37</v>
-      </c>
-      <c r="B35"/>
+        <v>70</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="n">
+        <v>45.7</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36" t="n">
-        <v>26.4</v>
+        <v>72</v>
+      </c>
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="n">
+        <v>27.6</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>39</v>
-      </c>
-      <c r="B37" t="n">
-        <v>19.9</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0.34</v>
+        <v>76</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="n">
+        <v>15.3</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" t="n">
-        <v>33</v>
+        <v>78</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" t="n">
-        <v>41.5</v>
+        <v>80</v>
+      </c>
+      <c r="B40" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.34</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" t="n">
-        <v>13.3</v>
+        <v>82</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="n">
+        <v>61.6</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="n">
-        <v>22.9</v>
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>85</v>
+      </c>
+      <c r="C42" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>45</v>
-      </c>
-      <c r="B43" t="n">
-        <v>22.9</v>
+        <v>86</v>
+      </c>
+      <c r="B43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C43" t="n">
+        <v>36.1</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>46</v>
-      </c>
-      <c r="B44" t="n">
-        <v>9.8</v>
+        <v>88</v>
+      </c>
+      <c r="B44" t="s">
+        <v>89</v>
+      </c>
+      <c r="C44" t="n">
+        <v>9.9</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>47</v>
-      </c>
-      <c r="B45" t="n">
-        <v>24.8</v>
+        <v>90</v>
+      </c>
+      <c r="B45" t="s">
+        <v>91</v>
+      </c>
+      <c r="C45" t="n">
+        <v>16.4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>48</v>
-      </c>
-      <c r="B46" t="n">
-        <v>19.9</v>
+        <v>92</v>
+      </c>
+      <c r="B46" t="s">
+        <v>93</v>
+      </c>
+      <c r="C46" t="n">
+        <v>34.9</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>49</v>
-      </c>
-      <c r="B47" t="n">
-        <v>16.4</v>
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" t="n">
+        <v>29.9</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="B48" t="n">
-        <v>22.9</v>
+        <v>96</v>
+      </c>
+      <c r="B48" t="s">
+        <v>97</v>
+      </c>
+      <c r="C48" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>51</v>
-      </c>
-      <c r="B49" t="n">
-        <v>25.2</v>
+        <v>98</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="n">
+        <v>37.8</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="n">
-        <v>41.5</v>
+        <v>100</v>
+      </c>
+      <c r="B50" t="s">
+        <v>101</v>
+      </c>
+      <c r="C50" t="n">
+        <v>13.3</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" t="n">
-        <v>16.4</v>
+        <v>102</v>
+      </c>
+      <c r="B51" t="s">
+        <v>103</v>
+      </c>
+      <c r="C51" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>54</v>
-      </c>
-      <c r="B52"/>
+        <v>104</v>
+      </c>
+      <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" t="n">
+        <v>24.8</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>55</v>
-      </c>
-      <c r="B53" t="n">
-        <v>24.8</v>
+        <v>106</v>
+      </c>
+      <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>56</v>
-      </c>
-      <c r="B54" t="n">
-        <v>25.2</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B54" t="s">
+        <v>109</v>
+      </c>
+      <c r="C54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>57</v>
-      </c>
-      <c r="B55" t="n">
-        <v>39.4</v>
+        <v>110</v>
+      </c>
+      <c r="B55" t="s">
+        <v>111</v>
+      </c>
+      <c r="C55" t="n">
+        <v>55.7</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>58</v>
-      </c>
-      <c r="B56" t="n">
-        <v>9.8</v>
+        <v>112</v>
+      </c>
+      <c r="B56" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56" t="n">
+        <v>64.4</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="B57" t="n">
-        <v>26.4</v>
+        <v>114</v>
+      </c>
+      <c r="B57" t="s">
+        <v>115</v>
+      </c>
+      <c r="C57" t="n">
+        <v>43.9</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>60</v>
-      </c>
-      <c r="B58" t="n">
-        <v>18.8</v>
+        <v>116</v>
+      </c>
+      <c r="B58" t="s">
+        <v>117</v>
+      </c>
+      <c r="C58" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" t="n">
-        <v>33.5</v>
+        <v>118</v>
+      </c>
+      <c r="B59" t="s">
+        <v>119</v>
+      </c>
+      <c r="C59" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>62</v>
-      </c>
-      <c r="B60" t="n">
-        <v>29.7</v>
+        <v>120</v>
+      </c>
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="n">
+        <v>33.5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" t="n">
-        <v>17.2</v>
+        <v>122</v>
+      </c>
+      <c r="B61" t="s">
+        <v>123</v>
+      </c>
+      <c r="C61" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>64</v>
-      </c>
-      <c r="B62" t="n">
-        <v>18.3</v>
+        <v>124</v>
+      </c>
+      <c r="B62" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" t="n">
+        <v>9.8</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" t="n">
-        <v>41</v>
+        <v>126</v>
+      </c>
+      <c r="B63" t="s">
+        <v>127</v>
+      </c>
+      <c r="C63" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" t="n">
-        <v>14.4</v>
+        <v>128</v>
+      </c>
+      <c r="B64" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64" t="n">
+        <v>34.7</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>67</v>
-      </c>
-      <c r="B65" t="n">
-        <v>24.8</v>
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" t="n">
+        <v>31.4</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>68</v>
-      </c>
-      <c r="B66" t="n">
-        <v>15.4</v>
+        <v>132</v>
+      </c>
+      <c r="B66" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66" t="n">
+        <v>41.4</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" t="n">
-        <v>19.7</v>
+        <v>134</v>
+      </c>
+      <c r="B67" t="s">
+        <v>135</v>
+      </c>
+      <c r="C67" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>70</v>
-      </c>
-      <c r="B68" t="n">
-        <v>37.6</v>
+        <v>136</v>
+      </c>
+      <c r="B68" t="s">
+        <v>137</v>
+      </c>
+      <c r="C68" t="n">
+        <v>14.4</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
-      </c>
-      <c r="B69" t="n">
-        <v>13.2</v>
+        <v>138</v>
+      </c>
+      <c r="B69" t="s">
+        <v>139</v>
+      </c>
+      <c r="C69" t="n">
+        <v>25.2</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>72</v>
-      </c>
-      <c r="B70" t="n">
-        <v>57.5</v>
+        <v>140</v>
+      </c>
+      <c r="B70" t="s">
+        <v>141</v>
+      </c>
+      <c r="C70" t="n">
+        <v>22.1</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71"/>
+        <v>142</v>
+      </c>
+      <c r="B71" t="s">
+        <v>143</v>
+      </c>
+      <c r="C71" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>74</v>
-      </c>
-      <c r="B72" t="n">
-        <v>14.4</v>
+        <v>144</v>
+      </c>
+      <c r="B72" t="s">
+        <v>145</v>
+      </c>
+      <c r="C72" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>75</v>
-      </c>
-      <c r="B73" t="n">
-        <v>17.2</v>
+        <v>146</v>
+      </c>
+      <c r="B73" t="s">
+        <v>147</v>
+      </c>
+      <c r="C73" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>76</v>
-      </c>
-      <c r="B74" t="n">
-        <v>14.4</v>
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>149</v>
+      </c>
+      <c r="C74" t="n">
+        <v>29.7</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75"/>
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>151</v>
+      </c>
+      <c r="C75" t="n">
+        <v>36.1</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" t="n">
-        <v>29.7</v>
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+      <c r="C76" t="n">
+        <v>64.4</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>79</v>
-      </c>
-      <c r="B77" t="n">
-        <v>29.7</v>
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>155</v>
+      </c>
+      <c r="C77" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>80</v>
-      </c>
-      <c r="B78" t="n">
-        <v>33.5</v>
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>157</v>
+      </c>
+      <c r="C78" t="n">
+        <v>22.9</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B79" t="n">
-        <v>13.2</v>
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>159</v>
+      </c>
+      <c r="C79" t="n">
+        <v>45.7</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>82</v>
-      </c>
-      <c r="B80" t="n">
-        <v>14.4</v>
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
+        <v>161</v>
+      </c>
+      <c r="C80" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>83</v>
-      </c>
-      <c r="B81" t="n">
-        <v>37.6</v>
+        <v>162</v>
+      </c>
+      <c r="B81" t="s">
+        <v>163</v>
+      </c>
+      <c r="C81" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>84</v>
-      </c>
-      <c r="B82" t="n">
-        <v>33.5</v>
+        <v>164</v>
+      </c>
+      <c r="B82" t="s">
+        <v>165</v>
+      </c>
+      <c r="C82" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>85</v>
-      </c>
-      <c r="B83" t="n">
-        <v>18.3</v>
+        <v>166</v>
+      </c>
+      <c r="B83" t="s">
+        <v>167</v>
+      </c>
+      <c r="C83" t="n">
+        <v>15.4</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" t="n">
-        <v>24.8</v>
+        <v>168</v>
+      </c>
+      <c r="B84" t="s">
+        <v>169</v>
+      </c>
+      <c r="C84" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>87</v>
-      </c>
-      <c r="B85" t="n">
-        <v>17.2</v>
+        <v>170</v>
+      </c>
+      <c r="B85" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" t="n">
+        <v>35.5</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>88</v>
-      </c>
-      <c r="B86" t="n">
-        <v>14.4</v>
+        <v>172</v>
+      </c>
+      <c r="B86" t="s">
+        <v>173</v>
+      </c>
+      <c r="C86" t="n">
+        <v>22.1</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>89</v>
-      </c>
-      <c r="B87" t="n">
-        <v>19.7</v>
+        <v>174</v>
+      </c>
+      <c r="B87" t="s">
+        <v>175</v>
+      </c>
+      <c r="C87" t="n">
+        <v>37.6</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88" t="n">
-        <v>27.3</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="B88" t="s">
+        <v>177</v>
+      </c>
+      <c r="C88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>91</v>
-      </c>
-      <c r="B89" t="n">
-        <v>36.3</v>
+        <v>178</v>
+      </c>
+      <c r="B89" t="s">
+        <v>179</v>
+      </c>
+      <c r="C89" t="n">
+        <v>52.6</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" t="n">
-        <v>36</v>
+        <v>180</v>
+      </c>
+      <c r="B90" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" t="n">
+        <v>39.4</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>93</v>
-      </c>
-      <c r="B91" t="n">
-        <v>15.3</v>
+        <v>182</v>
+      </c>
+      <c r="B91" t="s">
+        <v>183</v>
+      </c>
+      <c r="C91" t="n">
+        <v>25.2</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>94</v>
-      </c>
-      <c r="B92" t="n">
-        <v>41.5</v>
+        <v>184</v>
+      </c>
+      <c r="B92" t="s">
+        <v>185</v>
+      </c>
+      <c r="C92" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>95</v>
-      </c>
-      <c r="B93" t="n">
-        <v>37.8</v>
+        <v>186</v>
+      </c>
+      <c r="B93" t="s">
+        <v>187</v>
+      </c>
+      <c r="C93" t="n">
+        <v>19.7</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>96</v>
-      </c>
-      <c r="B94" t="n">
-        <v>24.8</v>
+        <v>188</v>
+      </c>
+      <c r="B94" t="s">
+        <v>189</v>
+      </c>
+      <c r="C94" t="n">
+        <v>9.8</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>97</v>
-      </c>
-      <c r="B95" t="n">
-        <v>43.9</v>
+        <v>190</v>
+      </c>
+      <c r="B95" t="s">
+        <v>191</v>
+      </c>
+      <c r="C95" t="n">
+        <v>27.3</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>98</v>
-      </c>
-      <c r="B96" t="n">
-        <v>64.4</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B96" t="s">
+        <v>193</v>
+      </c>
+      <c r="C96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="B97" t="n">
-        <v>45.7</v>
+        <v>194</v>
+      </c>
+      <c r="B97" t="s">
+        <v>195</v>
+      </c>
+      <c r="C97" t="n">
+        <v>17.2</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>100</v>
-      </c>
-      <c r="B98"/>
+        <v>196</v>
+      </c>
+      <c r="B98" t="s">
+        <v>197</v>
+      </c>
+      <c r="C98" t="n">
+        <v>14.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" t="n">
-        <v>34.4</v>
+        <v>198</v>
+      </c>
+      <c r="B99" t="s">
+        <v>199</v>
+      </c>
+      <c r="C99" t="n">
+        <v>33.5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>102</v>
-      </c>
-      <c r="B100" t="n">
-        <v>34.9</v>
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
+        <v>201</v>
+      </c>
+      <c r="C100" t="n">
+        <v>13.2</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>103</v>
-      </c>
-      <c r="B101" t="n">
-        <v>29.9</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="B101" t="s">
+        <v>203</v>
+      </c>
+      <c r="C101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>104</v>
-      </c>
-      <c r="B102" t="n">
-        <v>41.4</v>
+        <v>204</v>
+      </c>
+      <c r="B102" t="s">
+        <v>205</v>
+      </c>
+      <c r="C102" t="n">
+        <v>54.3</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>105</v>
-      </c>
-      <c r="B103"/>
+        <v>206</v>
+      </c>
+      <c r="B103" t="s">
+        <v>207</v>
+      </c>
+      <c r="C103" t="n">
+        <v>36.3</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>106</v>
-      </c>
-      <c r="B104" t="n">
-        <v>45.7</v>
+        <v>208</v>
+      </c>
+      <c r="B104" t="s">
+        <v>209</v>
+      </c>
+      <c r="C104" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>107</v>
-      </c>
-      <c r="B105" t="n">
-        <v>45.7</v>
+        <v>210</v>
+      </c>
+      <c r="B105" t="s">
+        <v>211</v>
+      </c>
+      <c r="C105" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>108</v>
-      </c>
-      <c r="B106" t="n">
-        <v>55.7</v>
+        <v>212</v>
+      </c>
+      <c r="B106" t="s">
+        <v>213</v>
+      </c>
+      <c r="C106" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" t="n">
-        <v>36.3</v>
+        <v>214</v>
+      </c>
+      <c r="B107" t="s">
+        <v>215</v>
+      </c>
+      <c r="C107" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>110</v>
-      </c>
-      <c r="B108" t="n">
-        <v>64.4</v>
+        <v>216</v>
+      </c>
+      <c r="B108" t="s">
+        <v>217</v>
+      </c>
+      <c r="C108" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>111</v>
-      </c>
-      <c r="B109" t="n">
-        <v>31.4</v>
+        <v>218</v>
+      </c>
+      <c r="B109" t="s">
+        <v>219</v>
+      </c>
+      <c r="C109" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>112</v>
-      </c>
-      <c r="B110" t="n">
-        <v>36.3</v>
+        <v>220</v>
+      </c>
+      <c r="B110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110" t="n">
+        <v>19.9</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>113</v>
-      </c>
-      <c r="B111" t="n">
-        <v>27.3</v>
+        <v>222</v>
+      </c>
+      <c r="B111" t="s">
+        <v>223</v>
+      </c>
+      <c r="C111" t="n">
+        <v>19.7</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>114</v>
-      </c>
-      <c r="B112" t="n">
-        <v>36.3</v>
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>225</v>
+      </c>
+      <c r="C112" t="n">
+        <v>57.5</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>115</v>
-      </c>
-      <c r="B113" t="n">
-        <v>36.3</v>
+        <v>226</v>
+      </c>
+      <c r="B113" t="s">
+        <v>227</v>
+      </c>
+      <c r="C113" t="n">
+        <v>19.7</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -14,12 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="242">
-  <si>
-    <t xml:space="preserve">id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">entity-name</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="241">
+  <si>
+    <t xml:space="preserve">district_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">district_name</t>
   </si>
   <si>
     <t xml:space="preserve">year</t>
@@ -646,6 +646,12 @@
     <t xml:space="preserve">Rukungiri</t>
   </si>
   <si>
+    <t xml:space="preserve">d111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sembabule</t>
+  </si>
+  <si>
     <t xml:space="preserve">d232</t>
   </si>
   <si>
@@ -670,12 +676,6 @@
     <t xml:space="preserve">Soroti</t>
   </si>
   <si>
-    <t xml:space="preserve">d111</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ssembabule</t>
-  </si>
-  <si>
     <t xml:space="preserve">d212</t>
   </si>
   <si>
@@ -706,13 +706,16 @@
     <t xml:space="preserve">Name: uganda-deprivation-living</t>
   </si>
   <si>
-    <t xml:space="preserve">Description: Decent standard of living score (higher is better).</t>
+    <t xml:space="preserve">Description: The basic needs for people to have a decent standard of living. The higher the score the better standard of living.</t>
   </si>
   <si>
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: Profiles of higher (district and municipal) local governments 2014, Uganda Bureau of Statistics.</t>
+    <t xml:space="preserve">Source: 28</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
   </si>
   <si>
     <t xml:space="preserve">Notes:</t>
@@ -721,25 +724,19 @@
     <t xml:space="preserve">On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://data.devinit.org.</t>
+    <t xml:space="preserve">The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
     <t xml:space="preserve">It is licensed under a Creative Commons Attribution 4.0 International license.</t>
   </si>
   <si>
-    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If you experience any technical issues when opening the .xlsx and/or the .csv and/or the .zip files please contact info@devinit.org.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2017.</t>
+    <t xml:space="preserve">More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For concerns, questions, or corrections: please email info@devinit.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copyright Development Initiatives Poverty Research Ltd. 2018</t>
   </si>
 </sst>
 </file>
@@ -1092,64 +1089,58 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5"/>
+      <c r="A5" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7"/>
+      <c r="A7" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
         <v>240</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -2615,7 +2606,7 @@
         <v>2014</v>
       </c>
       <c r="D105" t="n">
-        <v>26.4</v>
+        <v>47.1</v>
       </c>
     </row>
     <row r="106">
@@ -2629,7 +2620,7 @@
         <v>2014</v>
       </c>
       <c r="D106" t="n">
-        <v>36.3</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="107">
@@ -2643,7 +2634,7 @@
         <v>2014</v>
       </c>
       <c r="D107" t="n">
-        <v>41.5</v>
+        <v>36.3</v>
       </c>
     </row>
     <row r="108">
@@ -2657,7 +2648,7 @@
         <v>2014</v>
       </c>
       <c r="D108" t="n">
-        <v>26.4</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="109">
@@ -2671,7 +2662,7 @@
         <v>2014</v>
       </c>
       <c r="D109" t="n">
-        <v>47.1</v>
+        <v>26.4</v>
       </c>
     </row>
     <row r="110">
@@ -2749,9 +2740,6 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2759,19 +2747,13 @@
       <c r="A2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2"/>
+      <c r="B2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="B3" t="n">
         <v>18.8</v>
       </c>
     </row>
@@ -2779,10 +2761,7 @@
       <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="n">
+      <c r="B4" t="n">
         <v>13.2</v>
       </c>
     </row>
@@ -2790,10 +2769,7 @@
       <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="B5" t="n">
         <v>14.4</v>
       </c>
     </row>
@@ -2801,10 +2777,7 @@
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" t="n">
+      <c r="B6" t="n">
         <v>14.4</v>
       </c>
     </row>
@@ -2812,10 +2785,7 @@
       <c r="A7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" t="n">
+      <c r="B7" t="n">
         <v>37.6</v>
       </c>
     </row>
@@ -2823,10 +2793,7 @@
       <c r="A8" t="s">
         <v>16</v>
       </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="B8" t="n">
         <v>13.3</v>
       </c>
     </row>
@@ -2834,10 +2801,7 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" t="n">
+      <c r="B9" t="n">
         <v>17.2</v>
       </c>
     </row>
@@ -2845,10 +2809,7 @@
       <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" t="n">
+      <c r="B10" t="n">
         <v>33.5</v>
       </c>
     </row>
@@ -2856,10 +2817,7 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" t="n">
+      <c r="B11" t="n">
         <v>29.7</v>
       </c>
     </row>
@@ -2867,10 +2825,7 @@
       <c r="A12" t="s">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="n">
+      <c r="B12" t="n">
         <v>22.9</v>
       </c>
     </row>
@@ -2878,10 +2833,7 @@
       <c r="A13" t="s">
         <v>26</v>
       </c>
-      <c r="B13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" t="n">
+      <c r="B13" t="n">
         <v>22.9</v>
       </c>
     </row>
@@ -2889,10 +2841,7 @@
       <c r="A14" t="s">
         <v>28</v>
       </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="n">
+      <c r="B14" t="n">
         <v>39.4</v>
       </c>
     </row>
@@ -2900,10 +2849,7 @@
       <c r="A15" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" t="n">
+      <c r="B15" t="n">
         <v>36.3</v>
       </c>
     </row>
@@ -2911,10 +2857,7 @@
       <c r="A16" t="s">
         <v>32</v>
       </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" t="n">
+      <c r="B16" t="n">
         <v>22.1</v>
       </c>
     </row>
@@ -2922,10 +2865,7 @@
       <c r="A17" t="s">
         <v>34</v>
       </c>
-      <c r="B17" t="s">
-        <v>35</v>
-      </c>
-      <c r="C17" t="n">
+      <c r="B17" t="n">
         <v>9.8</v>
       </c>
     </row>
@@ -2933,10 +2873,7 @@
       <c r="A18" t="s">
         <v>36</v>
       </c>
-      <c r="B18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C18" t="n">
+      <c r="B18" t="n">
         <v>36.1</v>
       </c>
     </row>
@@ -2944,10 +2881,7 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" t="n">
+      <c r="B19" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -2955,10 +2889,7 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="C20" t="n">
+      <c r="B20" t="n">
         <v>41.5</v>
       </c>
     </row>
@@ -2966,19 +2897,13 @@
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21"/>
+      <c r="B21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" t="n">
+      <c r="B22" t="n">
         <v>27.3</v>
       </c>
     </row>
@@ -2986,10 +2911,7 @@
       <c r="A23" t="s">
         <v>46</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="n">
+      <c r="B23" t="n">
         <v>36.3</v>
       </c>
     </row>
@@ -2997,10 +2919,7 @@
       <c r="A24" t="s">
         <v>48</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="n">
+      <c r="B24" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3008,10 +2927,7 @@
       <c r="A25" t="s">
         <v>50</v>
       </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="n">
+      <c r="B25" t="n">
         <v>19.9</v>
       </c>
     </row>
@@ -3019,10 +2935,7 @@
       <c r="A26" t="s">
         <v>52</v>
       </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="n">
+      <c r="B26" t="n">
         <v>21.1</v>
       </c>
     </row>
@@ -3030,19 +2943,13 @@
       <c r="A27" t="s">
         <v>54</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="C27"/>
+      <c r="B27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
         <v>56</v>
       </c>
-      <c r="B28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C28" t="n">
+      <c r="B28" t="n">
         <v>16.4</v>
       </c>
     </row>
@@ -3050,10 +2957,7 @@
       <c r="A29" t="s">
         <v>58</v>
       </c>
-      <c r="B29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" t="n">
+      <c r="B29" t="n">
         <v>14.4</v>
       </c>
     </row>
@@ -3061,19 +2965,13 @@
       <c r="A30" t="s">
         <v>60</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30"/>
+      <c r="B30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
         <v>62</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" t="n">
+      <c r="B31" t="n">
         <v>17.2</v>
       </c>
     </row>
@@ -3081,10 +2979,7 @@
       <c r="A32" t="s">
         <v>64</v>
       </c>
-      <c r="B32" t="s">
-        <v>65</v>
-      </c>
-      <c r="C32" t="n">
+      <c r="B32" t="n">
         <v>36</v>
       </c>
     </row>
@@ -3092,10 +2987,7 @@
       <c r="A33" t="s">
         <v>66</v>
       </c>
-      <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="n">
+      <c r="B33" t="n">
         <v>45.7</v>
       </c>
     </row>
@@ -3103,10 +2995,7 @@
       <c r="A34" t="s">
         <v>68</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="n">
+      <c r="B34" t="n">
         <v>25.2</v>
       </c>
     </row>
@@ -3114,10 +3003,7 @@
       <c r="A35" t="s">
         <v>70</v>
       </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="n">
+      <c r="B35" t="n">
         <v>45.7</v>
       </c>
     </row>
@@ -3125,10 +3011,7 @@
       <c r="A36" t="s">
         <v>72</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="n">
+      <c r="B36" t="n">
         <v>27.6</v>
       </c>
     </row>
@@ -3136,19 +3019,13 @@
       <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37"/>
+      <c r="B37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
         <v>76</v>
       </c>
-      <c r="B38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C38" t="n">
+      <c r="B38" t="n">
         <v>15.3</v>
       </c>
     </row>
@@ -3156,10 +3033,7 @@
       <c r="A39" t="s">
         <v>78</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="n">
+      <c r="B39" t="n">
         <v>41.5</v>
       </c>
     </row>
@@ -3167,10 +3041,7 @@
       <c r="A40" t="s">
         <v>80</v>
       </c>
-      <c r="B40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" t="n">
+      <c r="B40" t="n">
         <v>0.34</v>
       </c>
     </row>
@@ -3178,10 +3049,7 @@
       <c r="A41" t="s">
         <v>82</v>
       </c>
-      <c r="B41" t="s">
-        <v>83</v>
-      </c>
-      <c r="C41" t="n">
+      <c r="B41" t="n">
         <v>61.6</v>
       </c>
     </row>
@@ -3189,10 +3057,7 @@
       <c r="A42" t="s">
         <v>84</v>
       </c>
-      <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" t="n">
+      <c r="B42" t="n">
         <v>16.4</v>
       </c>
     </row>
@@ -3200,10 +3065,7 @@
       <c r="A43" t="s">
         <v>86</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="n">
+      <c r="B43" t="n">
         <v>36.1</v>
       </c>
     </row>
@@ -3211,10 +3073,7 @@
       <c r="A44" t="s">
         <v>88</v>
       </c>
-      <c r="B44" t="s">
-        <v>89</v>
-      </c>
-      <c r="C44" t="n">
+      <c r="B44" t="n">
         <v>9.9</v>
       </c>
     </row>
@@ -3222,10 +3081,7 @@
       <c r="A45" t="s">
         <v>90</v>
       </c>
-      <c r="B45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C45" t="n">
+      <c r="B45" t="n">
         <v>16.4</v>
       </c>
     </row>
@@ -3233,10 +3089,7 @@
       <c r="A46" t="s">
         <v>92</v>
       </c>
-      <c r="B46" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" t="n">
+      <c r="B46" t="n">
         <v>34.9</v>
       </c>
     </row>
@@ -3244,10 +3097,7 @@
       <c r="A47" t="s">
         <v>94</v>
       </c>
-      <c r="B47" t="s">
-        <v>95</v>
-      </c>
-      <c r="C47" t="n">
+      <c r="B47" t="n">
         <v>29.9</v>
       </c>
     </row>
@@ -3255,10 +3105,7 @@
       <c r="A48" t="s">
         <v>96</v>
       </c>
-      <c r="B48" t="s">
-        <v>97</v>
-      </c>
-      <c r="C48" t="n">
+      <c r="B48" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -3266,10 +3113,7 @@
       <c r="A49" t="s">
         <v>98</v>
       </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="n">
+      <c r="B49" t="n">
         <v>37.8</v>
       </c>
     </row>
@@ -3277,10 +3121,7 @@
       <c r="A50" t="s">
         <v>100</v>
       </c>
-      <c r="B50" t="s">
-        <v>101</v>
-      </c>
-      <c r="C50" t="n">
+      <c r="B50" t="n">
         <v>13.3</v>
       </c>
     </row>
@@ -3288,10 +3129,7 @@
       <c r="A51" t="s">
         <v>102</v>
       </c>
-      <c r="B51" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" t="n">
+      <c r="B51" t="n">
         <v>22</v>
       </c>
     </row>
@@ -3299,10 +3137,7 @@
       <c r="A52" t="s">
         <v>104</v>
       </c>
-      <c r="B52" t="s">
-        <v>105</v>
-      </c>
-      <c r="C52" t="n">
+      <c r="B52" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -3310,10 +3145,7 @@
       <c r="A53" t="s">
         <v>106</v>
       </c>
-      <c r="B53" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" t="n">
+      <c r="B53" t="n">
         <v>34.7</v>
       </c>
     </row>
@@ -3321,19 +3153,13 @@
       <c r="A54" t="s">
         <v>108</v>
       </c>
-      <c r="B54" t="s">
-        <v>109</v>
-      </c>
-      <c r="C54"/>
+      <c r="B54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
         <v>110</v>
       </c>
-      <c r="B55" t="s">
-        <v>111</v>
-      </c>
-      <c r="C55" t="n">
+      <c r="B55" t="n">
         <v>55.7</v>
       </c>
     </row>
@@ -3341,10 +3167,7 @@
       <c r="A56" t="s">
         <v>112</v>
       </c>
-      <c r="B56" t="s">
-        <v>113</v>
-      </c>
-      <c r="C56" t="n">
+      <c r="B56" t="n">
         <v>64.4</v>
       </c>
     </row>
@@ -3352,10 +3175,7 @@
       <c r="A57" t="s">
         <v>114</v>
       </c>
-      <c r="B57" t="s">
-        <v>115</v>
-      </c>
-      <c r="C57" t="n">
+      <c r="B57" t="n">
         <v>43.9</v>
       </c>
     </row>
@@ -3363,10 +3183,7 @@
       <c r="A58" t="s">
         <v>116</v>
       </c>
-      <c r="B58" t="s">
-        <v>117</v>
-      </c>
-      <c r="C58" t="n">
+      <c r="B58" t="n">
         <v>18.3</v>
       </c>
     </row>
@@ -3374,10 +3191,7 @@
       <c r="A59" t="s">
         <v>118</v>
       </c>
-      <c r="B59" t="s">
-        <v>119</v>
-      </c>
-      <c r="C59" t="n">
+      <c r="B59" t="n">
         <v>29.7</v>
       </c>
     </row>
@@ -3385,10 +3199,7 @@
       <c r="A60" t="s">
         <v>120</v>
       </c>
-      <c r="B60" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" t="n">
+      <c r="B60" t="n">
         <v>33.5</v>
       </c>
     </row>
@@ -3396,10 +3207,7 @@
       <c r="A61" t="s">
         <v>122</v>
       </c>
-      <c r="B61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" t="n">
+      <c r="B61" t="n">
         <v>41</v>
       </c>
     </row>
@@ -3407,10 +3215,7 @@
       <c r="A62" t="s">
         <v>124</v>
       </c>
-      <c r="B62" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" t="n">
+      <c r="B62" t="n">
         <v>9.8</v>
       </c>
     </row>
@@ -3418,10 +3223,7 @@
       <c r="A63" t="s">
         <v>126</v>
       </c>
-      <c r="B63" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" t="n">
+      <c r="B63" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -3429,10 +3231,7 @@
       <c r="A64" t="s">
         <v>128</v>
       </c>
-      <c r="B64" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" t="n">
+      <c r="B64" t="n">
         <v>34.7</v>
       </c>
     </row>
@@ -3440,10 +3239,7 @@
       <c r="A65" t="s">
         <v>130</v>
       </c>
-      <c r="B65" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" t="n">
+      <c r="B65" t="n">
         <v>31.4</v>
       </c>
     </row>
@@ -3451,10 +3247,7 @@
       <c r="A66" t="s">
         <v>132</v>
       </c>
-      <c r="B66" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" t="n">
+      <c r="B66" t="n">
         <v>41.4</v>
       </c>
     </row>
@@ -3462,10 +3255,7 @@
       <c r="A67" t="s">
         <v>134</v>
       </c>
-      <c r="B67" t="s">
-        <v>135</v>
-      </c>
-      <c r="C67" t="n">
+      <c r="B67" t="n">
         <v>18.3</v>
       </c>
     </row>
@@ -3473,10 +3263,7 @@
       <c r="A68" t="s">
         <v>136</v>
       </c>
-      <c r="B68" t="s">
-        <v>137</v>
-      </c>
-      <c r="C68" t="n">
+      <c r="B68" t="n">
         <v>14.4</v>
       </c>
     </row>
@@ -3484,10 +3271,7 @@
       <c r="A69" t="s">
         <v>138</v>
       </c>
-      <c r="B69" t="s">
-        <v>139</v>
-      </c>
-      <c r="C69" t="n">
+      <c r="B69" t="n">
         <v>25.2</v>
       </c>
     </row>
@@ -3495,10 +3279,7 @@
       <c r="A70" t="s">
         <v>140</v>
       </c>
-      <c r="B70" t="s">
-        <v>141</v>
-      </c>
-      <c r="C70" t="n">
+      <c r="B70" t="n">
         <v>22.1</v>
       </c>
     </row>
@@ -3506,10 +3287,7 @@
       <c r="A71" t="s">
         <v>142</v>
       </c>
-      <c r="B71" t="s">
-        <v>143</v>
-      </c>
-      <c r="C71" t="n">
+      <c r="B71" t="n">
         <v>36.1</v>
       </c>
     </row>
@@ -3517,10 +3295,7 @@
       <c r="A72" t="s">
         <v>144</v>
       </c>
-      <c r="B72" t="s">
-        <v>145</v>
-      </c>
-      <c r="C72" t="n">
+      <c r="B72" t="n">
         <v>47.1</v>
       </c>
     </row>
@@ -3528,10 +3303,7 @@
       <c r="A73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="s">
-        <v>147</v>
-      </c>
-      <c r="C73" t="n">
+      <c r="B73" t="n">
         <v>22.9</v>
       </c>
     </row>
@@ -3539,10 +3311,7 @@
       <c r="A74" t="s">
         <v>148</v>
       </c>
-      <c r="B74" t="s">
-        <v>149</v>
-      </c>
-      <c r="C74" t="n">
+      <c r="B74" t="n">
         <v>29.7</v>
       </c>
     </row>
@@ -3550,10 +3319,7 @@
       <c r="A75" t="s">
         <v>150</v>
       </c>
-      <c r="B75" t="s">
-        <v>151</v>
-      </c>
-      <c r="C75" t="n">
+      <c r="B75" t="n">
         <v>36.1</v>
       </c>
     </row>
@@ -3561,10 +3327,7 @@
       <c r="A76" t="s">
         <v>152</v>
       </c>
-      <c r="B76" t="s">
-        <v>153</v>
-      </c>
-      <c r="C76" t="n">
+      <c r="B76" t="n">
         <v>64.4</v>
       </c>
     </row>
@@ -3572,10 +3335,7 @@
       <c r="A77" t="s">
         <v>154</v>
       </c>
-      <c r="B77" t="s">
-        <v>155</v>
-      </c>
-      <c r="C77" t="n">
+      <c r="B77" t="n">
         <v>33</v>
       </c>
     </row>
@@ -3583,10 +3343,7 @@
       <c r="A78" t="s">
         <v>156</v>
       </c>
-      <c r="B78" t="s">
-        <v>157</v>
-      </c>
-      <c r="C78" t="n">
+      <c r="B78" t="n">
         <v>22.9</v>
       </c>
     </row>
@@ -3594,10 +3351,7 @@
       <c r="A79" t="s">
         <v>158</v>
       </c>
-      <c r="B79" t="s">
-        <v>159</v>
-      </c>
-      <c r="C79" t="n">
+      <c r="B79" t="n">
         <v>45.7</v>
       </c>
     </row>
@@ -3605,10 +3359,7 @@
       <c r="A80" t="s">
         <v>160</v>
       </c>
-      <c r="B80" t="s">
-        <v>161</v>
-      </c>
-      <c r="C80" t="n">
+      <c r="B80" t="n">
         <v>36.3</v>
       </c>
     </row>
@@ -3616,10 +3367,7 @@
       <c r="A81" t="s">
         <v>162</v>
       </c>
-      <c r="B81" t="s">
-        <v>163</v>
-      </c>
-      <c r="C81" t="n">
+      <c r="B81" t="n">
         <v>35.5</v>
       </c>
     </row>
@@ -3627,10 +3375,7 @@
       <c r="A82" t="s">
         <v>164</v>
       </c>
-      <c r="B82" t="s">
-        <v>165</v>
-      </c>
-      <c r="C82" t="n">
+      <c r="B82" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -3638,10 +3383,7 @@
       <c r="A83" t="s">
         <v>166</v>
       </c>
-      <c r="B83" t="s">
-        <v>167</v>
-      </c>
-      <c r="C83" t="n">
+      <c r="B83" t="n">
         <v>15.4</v>
       </c>
     </row>
@@ -3649,10 +3391,7 @@
       <c r="A84" t="s">
         <v>168</v>
       </c>
-      <c r="B84" t="s">
-        <v>169</v>
-      </c>
-      <c r="C84" t="n">
+      <c r="B84" t="n">
         <v>21.1</v>
       </c>
     </row>
@@ -3660,10 +3399,7 @@
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" t="s">
-        <v>171</v>
-      </c>
-      <c r="C85" t="n">
+      <c r="B85" t="n">
         <v>35.5</v>
       </c>
     </row>
@@ -3671,10 +3407,7 @@
       <c r="A86" t="s">
         <v>172</v>
       </c>
-      <c r="B86" t="s">
-        <v>173</v>
-      </c>
-      <c r="C86" t="n">
+      <c r="B86" t="n">
         <v>22.1</v>
       </c>
     </row>
@@ -3682,10 +3415,7 @@
       <c r="A87" t="s">
         <v>174</v>
       </c>
-      <c r="B87" t="s">
-        <v>175</v>
-      </c>
-      <c r="C87" t="n">
+      <c r="B87" t="n">
         <v>37.6</v>
       </c>
     </row>
@@ -3693,19 +3423,13 @@
       <c r="A88" t="s">
         <v>176</v>
       </c>
-      <c r="B88" t="s">
-        <v>177</v>
-      </c>
-      <c r="C88"/>
+      <c r="B88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
         <v>178</v>
       </c>
-      <c r="B89" t="s">
-        <v>179</v>
-      </c>
-      <c r="C89" t="n">
+      <c r="B89" t="n">
         <v>52.6</v>
       </c>
     </row>
@@ -3713,10 +3437,7 @@
       <c r="A90" t="s">
         <v>180</v>
       </c>
-      <c r="B90" t="s">
-        <v>181</v>
-      </c>
-      <c r="C90" t="n">
+      <c r="B90" t="n">
         <v>39.4</v>
       </c>
     </row>
@@ -3724,10 +3445,7 @@
       <c r="A91" t="s">
         <v>182</v>
       </c>
-      <c r="B91" t="s">
-        <v>183</v>
-      </c>
-      <c r="C91" t="n">
+      <c r="B91" t="n">
         <v>25.2</v>
       </c>
     </row>
@@ -3735,10 +3453,7 @@
       <c r="A92" t="s">
         <v>184</v>
       </c>
-      <c r="B92" t="s">
-        <v>185</v>
-      </c>
-      <c r="C92" t="n">
+      <c r="B92" t="n">
         <v>24.8</v>
       </c>
     </row>
@@ -3746,10 +3461,7 @@
       <c r="A93" t="s">
         <v>186</v>
       </c>
-      <c r="B93" t="s">
-        <v>187</v>
-      </c>
-      <c r="C93" t="n">
+      <c r="B93" t="n">
         <v>19.7</v>
       </c>
     </row>
@@ -3757,10 +3469,7 @@
       <c r="A94" t="s">
         <v>188</v>
       </c>
-      <c r="B94" t="s">
-        <v>189</v>
-      </c>
-      <c r="C94" t="n">
+      <c r="B94" t="n">
         <v>9.8</v>
       </c>
     </row>
@@ -3768,10 +3477,7 @@
       <c r="A95" t="s">
         <v>190</v>
       </c>
-      <c r="B95" t="s">
-        <v>191</v>
-      </c>
-      <c r="C95" t="n">
+      <c r="B95" t="n">
         <v>27.3</v>
       </c>
     </row>
@@ -3779,19 +3485,13 @@
       <c r="A96" t="s">
         <v>192</v>
       </c>
-      <c r="B96" t="s">
-        <v>193</v>
-      </c>
-      <c r="C96"/>
+      <c r="B96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
         <v>194</v>
       </c>
-      <c r="B97" t="s">
-        <v>195</v>
-      </c>
-      <c r="C97" t="n">
+      <c r="B97" t="n">
         <v>17.2</v>
       </c>
     </row>
@@ -3799,10 +3499,7 @@
       <c r="A98" t="s">
         <v>196</v>
       </c>
-      <c r="B98" t="s">
-        <v>197</v>
-      </c>
-      <c r="C98" t="n">
+      <c r="B98" t="n">
         <v>14.4</v>
       </c>
     </row>
@@ -3810,10 +3507,7 @@
       <c r="A99" t="s">
         <v>198</v>
       </c>
-      <c r="B99" t="s">
-        <v>199</v>
-      </c>
-      <c r="C99" t="n">
+      <c r="B99" t="n">
         <v>33.5</v>
       </c>
     </row>
@@ -3821,10 +3515,7 @@
       <c r="A100" t="s">
         <v>200</v>
       </c>
-      <c r="B100" t="s">
-        <v>201</v>
-      </c>
-      <c r="C100" t="n">
+      <c r="B100" t="n">
         <v>13.2</v>
       </c>
     </row>
@@ -3832,19 +3523,13 @@
       <c r="A101" t="s">
         <v>202</v>
       </c>
-      <c r="B101" t="s">
-        <v>203</v>
-      </c>
-      <c r="C101"/>
+      <c r="B101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
         <v>204</v>
       </c>
-      <c r="B102" t="s">
-        <v>205</v>
-      </c>
-      <c r="C102" t="n">
+      <c r="B102" t="n">
         <v>54.3</v>
       </c>
     </row>
@@ -3852,10 +3537,7 @@
       <c r="A103" t="s">
         <v>206</v>
       </c>
-      <c r="B103" t="s">
-        <v>207</v>
-      </c>
-      <c r="C103" t="n">
+      <c r="B103" t="n">
         <v>36.3</v>
       </c>
     </row>
@@ -3863,10 +3545,7 @@
       <c r="A104" t="s">
         <v>208</v>
       </c>
-      <c r="B104" t="s">
-        <v>209</v>
-      </c>
-      <c r="C104" t="n">
+      <c r="B104" t="n">
         <v>34.4</v>
       </c>
     </row>
@@ -3874,65 +3553,47 @@
       <c r="A105" t="s">
         <v>210</v>
       </c>
-      <c r="B105" t="s">
-        <v>211</v>
-      </c>
-      <c r="C105" t="n">
-        <v>26.4</v>
+      <c r="B105" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
         <v>212</v>
       </c>
-      <c r="B106" t="s">
-        <v>213</v>
-      </c>
-      <c r="C106" t="n">
-        <v>36.3</v>
+      <c r="B106" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
         <v>214</v>
       </c>
-      <c r="B107" t="s">
-        <v>215</v>
-      </c>
-      <c r="C107" t="n">
-        <v>41.5</v>
+      <c r="B107" t="n">
+        <v>36.3</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="s">
         <v>216</v>
       </c>
-      <c r="B108" t="s">
-        <v>217</v>
-      </c>
-      <c r="C108" t="n">
-        <v>26.4</v>
+      <c r="B108" t="n">
+        <v>41.5</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s">
         <v>218</v>
       </c>
-      <c r="B109" t="s">
-        <v>219</v>
-      </c>
-      <c r="C109" t="n">
-        <v>47.1</v>
+      <c r="B109" t="n">
+        <v>26.4</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="s">
         <v>220</v>
       </c>
-      <c r="B110" t="s">
-        <v>221</v>
-      </c>
-      <c r="C110" t="n">
+      <c r="B110" t="n">
         <v>19.9</v>
       </c>
     </row>
@@ -3940,10 +3601,7 @@
       <c r="A111" t="s">
         <v>222</v>
       </c>
-      <c r="B111" t="s">
-        <v>223</v>
-      </c>
-      <c r="C111" t="n">
+      <c r="B111" t="n">
         <v>19.7</v>
       </c>
     </row>
@@ -3951,10 +3609,7 @@
       <c r="A112" t="s">
         <v>224</v>
       </c>
-      <c r="B112" t="s">
-        <v>225</v>
-      </c>
-      <c r="C112" t="n">
+      <c r="B112" t="n">
         <v>57.5</v>
       </c>
     </row>
@@ -3962,10 +3617,7 @@
       <c r="A113" t="s">
         <v>226</v>
       </c>
-      <c r="B113" t="s">
-        <v>227</v>
-      </c>
-      <c r="C113" t="n">
+      <c r="B113" t="n">
         <v>19.7</v>
       </c>
     </row>

--- a/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
+++ b/user-data/uganda-deprivation-living/uganda-deprivation-living.xlsx
@@ -712,7 +712,7 @@
     <t xml:space="preserve">Units of measure: unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Source: 28</t>
+    <t xml:space="preserve">Source: 29</t>
   </si>
   <si>
     <t xml:space="preserve"/>
